--- a/化验月报汇总.xlsx
+++ b/化验月报汇总.xlsx
@@ -1,42 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28602"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/入厂煤/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_65B1369C5BE0D7F0782B09D04B5ED87656CD7A28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D19B960-B787-4AFB-823A-5063AB62A246}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>序号</t>
   </si>
@@ -77,133 +55,190 @@
     <t>大同煤矿集团朔煤小峪煤业有限公司（10-1宝特）</t>
   </si>
   <si>
+    <t>大同煤矿集团朔煤小峪煤业有限公司（11-1宝特）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（1-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团金辛达煤业（1-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（12-1火车）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（11-1宝特火车）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（10-1火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（11-1火车）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团翼城华泓煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>山西晋煤集团临汾晋牛煤矿投资有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>山西晋煤集团临汾晋牛煤矿投资有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团四明山煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团野川有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（12-1宝特火车）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司（2-1）</t>
+  </si>
+  <si>
     <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
+    <t>2025-01-晋能控股煤业集团翼城华泓煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
+    <t>2025-01-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-山西焦煤集团金辛达煤业</t>
+  </si>
+  <si>
+    <t>2025-01-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-山西乡宁焦煤集团富康源煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-01-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2025-01-阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-晋能控股煤业集团翼城华泓煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西焦煤集团金辛达煤业</t>
+  </si>
+  <si>
+    <t>2025-02-山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西煤炭运销集团四明山煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西煤炭运销集团野川有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-山西乡宁焦煤集团富康源煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-02-太原煤气化龙泉能源</t>
+  </si>
+  <si>
+    <t>2025-02-阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
     <t>大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
-    <t>大同煤矿集团朔煤小峪煤业有限公司（11-1宝特）</t>
-  </si>
-  <si>
-    <t>晋能控股煤业集团翼城华泓煤业有限公司（1-1）</t>
-  </si>
-  <si>
-    <t>2025-01-晋能控股煤业集团翼城华泓煤业有限公司</t>
-  </si>
-  <si>
     <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
   </si>
   <si>
-    <t>晋能控股煤业集团翼城华泓煤业有限公司（12-1）</t>
-  </si>
-  <si>
-    <t>山西汾河焦煤股份有限公司三交河煤矿（1-1）</t>
-  </si>
-  <si>
-    <t>2025-01-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
     <t>山西汾河焦煤股份有限公司三交河煤矿</t>
   </si>
   <si>
-    <t>山西焦煤霍州煤电雪坪煤业有限公司（1-1）</t>
-  </si>
-  <si>
-    <t>2025-01-山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
     <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
   </si>
   <si>
-    <t>山西焦煤集团金辛达煤业（1-1）</t>
-  </si>
-  <si>
-    <t>2025-01-山西焦煤集团金辛达煤业</t>
-  </si>
-  <si>
     <t>山西焦煤集团金辛达煤业</t>
   </si>
   <si>
-    <t>山西煤炭运销集团莲盛有限公司（12-1火车）</t>
-  </si>
-  <si>
-    <t>2025-01-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
     <t>山西煤炭运销集团莲盛有限公司</t>
   </si>
   <si>
-    <t>山西煤炭运销集团野川有限公司（12-1）</t>
-  </si>
-  <si>
-    <t>2025-01-山西煤炭运销集团野川有限公司</t>
-  </si>
-  <si>
     <t>山西煤炭运销集团野川有限公司</t>
   </si>
   <si>
-    <t>山西乡宁焦煤集团富康源煤业有限公司（1-1）</t>
-  </si>
-  <si>
-    <t>2025-01-山西乡宁焦煤集团富康源煤业有限公司</t>
-  </si>
-  <si>
     <t>山西乡宁焦煤集团富康源煤业有限公司</t>
   </si>
   <si>
-    <t>太原煤气化龙泉能源（11-1宝特火车）</t>
-  </si>
-  <si>
-    <t>2025-01-太原煤气化龙泉能源</t>
-  </si>
-  <si>
     <t>太原煤气化龙泉能源</t>
   </si>
   <si>
-    <t>阳泉煤业集团翼城山凹煤业有限公司（1-1）</t>
-  </si>
-  <si>
-    <t>2025-01-阳泉煤业集团翼城山凹煤业有限公司</t>
-  </si>
-  <si>
     <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司</t>
+  </si>
+  <si>
+    <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团四明山煤业有限公司</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,31 +273,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{A29E73E0-3A51-47D2-BD52-9DF8CDFA5D27}"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -550,28 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -619,10 +628,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>3442.2</v>
@@ -640,7 +649,7 @@
         <v>37.6</v>
       </c>
       <c r="J2">
-        <v>39.950000000000003</v>
+        <v>39.95</v>
       </c>
       <c r="K2">
         <v>0.49</v>
@@ -654,13 +663,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>5756.2</v>
@@ -672,10 +681,10 @@
         <v>6.1</v>
       </c>
       <c r="H3">
-        <v>35.130000000000003</v>
+        <v>35.13</v>
       </c>
       <c r="I3">
-        <v>38.119999999999997</v>
+        <v>38.12</v>
       </c>
       <c r="J3">
         <v>39.83</v>
@@ -692,13 +701,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>27057.91</v>
@@ -730,13 +739,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>2917.8</v>
@@ -768,16 +777,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>2502.7600000000002</v>
+        <v>2502.76</v>
       </c>
       <c r="F6" s="2">
         <v>45658</v>
@@ -806,13 +815,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>2876.64</v>
@@ -844,13 +853,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>523.46</v>
@@ -862,16 +871,16 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>40.840000000000003</v>
+        <v>40.84</v>
       </c>
       <c r="I8">
         <v>30.27</v>
       </c>
       <c r="J8">
-        <v>40.909999999999997</v>
+        <v>40.91</v>
       </c>
       <c r="K8">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="L8">
         <v>4264</v>
@@ -882,13 +891,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>77163.16</v>
@@ -920,13 +929,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>61.04</v>
@@ -938,7 +947,7 @@
         <v>6.5</v>
       </c>
       <c r="H10">
-        <v>39.869999999999997</v>
+        <v>39.87</v>
       </c>
       <c r="I10">
         <v>18.48</v>
@@ -958,13 +967,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>986.26</v>
@@ -976,7 +985,7 @@
         <v>7.9</v>
       </c>
       <c r="H11">
-        <v>39.590000000000003</v>
+        <v>39.59</v>
       </c>
       <c r="I11">
         <v>31.6</v>
@@ -996,13 +1005,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>3824.5</v>
@@ -1034,13 +1043,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>15211.08</v>
@@ -1067,14 +1076,501 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
-      <c r="F18">
-        <f>SUMPRODUCT(L2:L13,E2:E13)/SUM(E2:E13)</f>
-        <v>3834.9374279675512</v>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>10026.48</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G14">
+        <v>6.5</v>
+      </c>
+      <c r="H14">
+        <v>58.42</v>
+      </c>
+      <c r="I14">
+        <v>44.38</v>
+      </c>
+      <c r="J14">
+        <v>23.04</v>
+      </c>
+      <c r="K14">
+        <v>0.44</v>
+      </c>
+      <c r="L14">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>4469.56</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G15">
+        <v>5.6</v>
+      </c>
+      <c r="H15">
+        <v>60.67</v>
+      </c>
+      <c r="I15">
+        <v>45.87</v>
+      </c>
+      <c r="J15">
+        <v>21.1</v>
+      </c>
+      <c r="K15">
+        <v>0.38</v>
+      </c>
+      <c r="L15">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>12431.74</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G16">
+        <v>4.1</v>
+      </c>
+      <c r="H16">
+        <v>31.45</v>
+      </c>
+      <c r="I16">
+        <v>14.58</v>
+      </c>
+      <c r="J16">
+        <v>58.34</v>
+      </c>
+      <c r="K16">
+        <v>3.25</v>
+      </c>
+      <c r="L16">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>4962.66</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G17">
+        <v>4.4</v>
+      </c>
+      <c r="H17">
+        <v>52.4</v>
+      </c>
+      <c r="I17">
+        <v>32.87</v>
+      </c>
+      <c r="J17">
+        <v>31.79</v>
+      </c>
+      <c r="K17">
+        <v>2.27</v>
+      </c>
+      <c r="L17">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <v>1958.84</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G18">
+        <v>5.2</v>
+      </c>
+      <c r="H18">
+        <v>46.16</v>
+      </c>
+      <c r="I18">
+        <v>30.64</v>
+      </c>
+      <c r="J18">
+        <v>37.14</v>
+      </c>
+      <c r="K18">
+        <v>1.64</v>
+      </c>
+      <c r="L18">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>2002.74</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G19">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H19">
+        <v>40.87</v>
+      </c>
+      <c r="I19">
+        <v>30.26</v>
+      </c>
+      <c r="J19">
+        <v>40.87</v>
+      </c>
+      <c r="K19">
+        <v>2.73</v>
+      </c>
+      <c r="L19">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>385.34</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G20">
+        <v>11.5</v>
+      </c>
+      <c r="H20">
+        <v>41.1</v>
+      </c>
+      <c r="I20">
+        <v>31.59</v>
+      </c>
+      <c r="J20">
+        <v>40.05</v>
+      </c>
+      <c r="K20">
+        <v>2.93</v>
+      </c>
+      <c r="L20">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>532.92</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G21">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H21">
+        <v>38.01</v>
+      </c>
+      <c r="I21">
+        <v>14.41</v>
+      </c>
+      <c r="J21">
+        <v>52.66</v>
+      </c>
+      <c r="K21">
+        <v>2.54</v>
+      </c>
+      <c r="L21">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>699.98</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>40.09</v>
+      </c>
+      <c r="I22">
+        <v>17.95</v>
+      </c>
+      <c r="J22">
+        <v>49.22</v>
+      </c>
+      <c r="K22">
+        <v>0.41</v>
+      </c>
+      <c r="L22">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>13171.96</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G23">
+        <v>6.5</v>
+      </c>
+      <c r="H23">
+        <v>42.68</v>
+      </c>
+      <c r="I23">
+        <v>29.49</v>
+      </c>
+      <c r="J23">
+        <v>40.21</v>
+      </c>
+      <c r="K23">
+        <v>1.31</v>
+      </c>
+      <c r="L23">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>1411.94</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G24">
+        <v>5.3</v>
+      </c>
+      <c r="H24">
+        <v>34.22</v>
+      </c>
+      <c r="I24">
+        <v>32.23</v>
+      </c>
+      <c r="J24">
+        <v>44.35</v>
+      </c>
+      <c r="K24">
+        <v>0.37</v>
+      </c>
+      <c r="L24">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25">
+        <v>8916.940000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G25">
+        <v>6.4</v>
+      </c>
+      <c r="H25">
+        <v>34.71</v>
+      </c>
+      <c r="I25">
+        <v>31.23</v>
+      </c>
+      <c r="J25">
+        <v>44.56</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>7581.29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G26">
+        <v>5.1</v>
+      </c>
+      <c r="H26">
+        <v>48.43</v>
+      </c>
+      <c r="I26">
+        <v>23.03</v>
+      </c>
+      <c r="J26">
+        <v>39.51</v>
+      </c>
+      <c r="K26">
+        <v>2.79</v>
+      </c>
+      <c r="L26">
+        <v>3328</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/化验月报汇总.xlsx
+++ b/化验月报汇总.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1DC4E1666830720DFAB6388EE03CB5018AF44248" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5636B7EF-5DCA-4B87-A9C8-1749C146A6C5}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="原始数据" sheetId="1" r:id="rId1"/>
+    <sheet name="月度统计" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -94,24 +101,42 @@
     <t>大同煤矿集团北辛窑煤业有限公司（11-1火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团朔煤小峪煤业有限公司（12-1宝特）</t>
+  </si>
+  <si>
     <t>晋能控股煤业集团翼城华泓煤业有限公司（2-1）</t>
   </si>
   <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（2-1）</t>
+  </si>
+  <si>
     <t>山西焦煤霍州煤电雪坪煤业有限公司（2-1）</t>
   </si>
   <si>
+    <t>山西焦煤集团金辛达煤业（2-1）</t>
+  </si>
+  <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司（1-1）</t>
   </si>
   <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司（2-1）</t>
   </si>
   <si>
+    <t>山西煤炭运销集团莲盛有限公司（11-1火车）</t>
+  </si>
+  <si>
     <t>山西煤炭运销集团四明山煤业有限公司（2-1）</t>
   </si>
   <si>
     <t>山西煤炭运销集团野川有限公司（2-1）</t>
   </si>
   <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（11-1宝特）</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（12-1宝特）</t>
+  </si>
+  <si>
     <t>太原煤气化龙泉能源（12-1宝特火车）</t>
   </si>
   <si>
@@ -151,9 +176,15 @@
     <t>2025-02-大同煤矿集团北辛窑煤业有限公司</t>
   </si>
   <si>
+    <t>2025-02-大同煤矿集团朔煤小峪煤业有限公司</t>
+  </si>
+  <si>
     <t>2025-02-晋能控股煤业集团翼城华泓煤业有限公司</t>
   </si>
   <si>
+    <t>2025-02-山西汾河焦煤股份有限公司三交河煤矿</t>
+  </si>
+  <si>
     <t>2025-02-山西焦煤霍州煤电雪坪煤业有限公司</t>
   </si>
   <si>
@@ -163,6 +194,9 @@
     <t>2025-02-山西晋煤集团临汾晋牛煤矿投资有限公司</t>
   </si>
   <si>
+    <t>2025-02-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
     <t>2025-02-山西煤炭运销集团四明山煤业有限公司</t>
   </si>
   <si>
@@ -172,6 +206,9 @@
     <t>2025-02-山西乡宁焦煤集团富康源煤业有限公司</t>
   </si>
   <si>
+    <t>2025-02-太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
     <t>2025-02-太原煤气化龙泉能源</t>
   </si>
   <si>
@@ -215,20 +252,50 @@
   </si>
   <si>
     <t>山西煤炭运销集团四明山煤业有限公司</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
+    <t>统计月份</t>
+  </si>
+  <si>
+    <t>月度来煤量</t>
+  </si>
+  <si>
+    <t>全水Mt_加权平均</t>
+  </si>
+  <si>
+    <t>全硫_加权平均</t>
+  </si>
+  <si>
+    <t>发热量_加权平均</t>
+  </si>
+  <si>
+    <t>挥发份Vdaf_加权平均</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>年度累计</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,8 +303,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,25 +350,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +415,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -366,6 +449,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -400,9 +484,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,14 +660,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L30:L35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -628,10 +729,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>3442.2</v>
@@ -649,7 +750,7 @@
         <v>37.6</v>
       </c>
       <c r="J2">
-        <v>39.95</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="K2">
         <v>0.49</v>
@@ -658,7 +759,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -666,10 +767,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>5756.2</v>
@@ -681,10 +782,10 @@
         <v>6.1</v>
       </c>
       <c r="H3">
-        <v>35.13</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="I3">
-        <v>38.12</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="J3">
         <v>39.83</v>
@@ -696,7 +797,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -704,10 +805,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>27057.91</v>
@@ -734,7 +835,7 @@
         <v>4877</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -742,10 +843,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>2917.8</v>
@@ -772,7 +873,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -780,13 +881,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>2502.76</v>
+        <v>2502.7600000000002</v>
       </c>
       <c r="F6" s="2">
         <v>45658</v>
@@ -810,7 +911,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -818,10 +919,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>2876.64</v>
@@ -848,7 +949,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -856,10 +957,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>523.46</v>
@@ -871,22 +972,22 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>40.84</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="I8">
         <v>30.27</v>
       </c>
       <c r="J8">
-        <v>40.91</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="K8">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L8">
         <v>4264</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -894,10 +995,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>77163.16</v>
@@ -924,7 +1025,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -932,10 +1033,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>61.04</v>
@@ -947,7 +1048,7 @@
         <v>6.5</v>
       </c>
       <c r="H10">
-        <v>39.87</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="I10">
         <v>18.48</v>
@@ -962,7 +1063,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -970,10 +1071,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>986.26</v>
@@ -985,7 +1086,7 @@
         <v>7.9</v>
       </c>
       <c r="H11">
-        <v>39.59</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="I11">
         <v>31.6</v>
@@ -1000,7 +1101,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1008,10 +1109,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>3824.5</v>
@@ -1038,7 +1139,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1046,10 +1147,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>15211.08</v>
@@ -1076,7 +1177,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1084,37 +1185,37 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E14">
-        <v>10026.48</v>
+        <v>12060.04</v>
       </c>
       <c r="F14" s="2">
         <v>45689</v>
       </c>
       <c r="G14">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H14">
-        <v>58.42</v>
+        <v>59.36</v>
       </c>
       <c r="I14">
-        <v>44.38</v>
+        <v>45</v>
       </c>
       <c r="J14">
-        <v>23.04</v>
+        <v>22.29</v>
       </c>
       <c r="K14">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="L14">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1122,379 +1223,379 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>4469.56</v>
+        <v>28798.32</v>
       </c>
       <c r="F15" s="2">
         <v>45689</v>
       </c>
       <c r="G15">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="H15">
-        <v>60.67</v>
+        <v>62.43</v>
       </c>
       <c r="I15">
-        <v>45.87</v>
+        <v>47.7</v>
       </c>
       <c r="J15">
-        <v>21.1</v>
+        <v>19.46</v>
       </c>
       <c r="K15">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="L15">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E16">
-        <v>12431.74</v>
+        <v>283.7</v>
       </c>
       <c r="F16" s="2">
         <v>45689</v>
       </c>
       <c r="G16">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>31.45</v>
+        <v>35.33</v>
       </c>
       <c r="I16">
-        <v>14.58</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J16">
-        <v>58.34</v>
+        <v>39.01</v>
       </c>
       <c r="K16">
-        <v>3.25</v>
+        <v>0.31</v>
       </c>
       <c r="L16">
-        <v>5073</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E17">
-        <v>4962.66</v>
+        <v>1500.5</v>
       </c>
       <c r="F17" s="2">
         <v>45689</v>
       </c>
       <c r="G17">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="H17">
-        <v>52.4</v>
+        <v>37.32</v>
       </c>
       <c r="I17">
-        <v>32.87</v>
+        <v>36.04</v>
       </c>
       <c r="J17">
-        <v>31.79</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="K17">
-        <v>2.27</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E18">
-        <v>1958.84</v>
+        <v>6806.02</v>
       </c>
       <c r="F18" s="2">
         <v>45689</v>
       </c>
       <c r="G18">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="H18">
-        <v>46.16</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="I18">
-        <v>30.64</v>
+        <v>38.67</v>
       </c>
       <c r="J18">
-        <v>37.14</v>
+        <v>39.49</v>
       </c>
       <c r="K18">
-        <v>1.64</v>
+        <v>0.33</v>
       </c>
       <c r="L18">
-        <v>3764</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>65</v>
       </c>
       <c r="E19">
-        <v>2002.74</v>
+        <v>25395.27</v>
       </c>
       <c r="F19" s="2">
         <v>45689</v>
       </c>
       <c r="G19">
-        <v>8.699999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H19">
-        <v>40.87</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="I19">
-        <v>30.26</v>
+        <v>14.68</v>
       </c>
       <c r="J19">
-        <v>40.87</v>
+        <v>57.71</v>
       </c>
       <c r="K19">
-        <v>2.73</v>
+        <v>3.34</v>
       </c>
       <c r="L19">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20">
-        <v>385.34</v>
+        <v>2449.42</v>
       </c>
       <c r="F20" s="2">
         <v>45689</v>
       </c>
       <c r="G20">
-        <v>11.5</v>
+        <v>10.4</v>
       </c>
       <c r="H20">
-        <v>41.1</v>
+        <v>30.47</v>
       </c>
       <c r="I20">
-        <v>31.59</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="J20">
-        <v>40.05</v>
+        <v>45.16</v>
       </c>
       <c r="K20">
-        <v>2.93</v>
+        <v>2.02</v>
       </c>
       <c r="L20">
-        <v>3859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21">
-        <v>532.92</v>
+        <v>4962.66</v>
       </c>
       <c r="F21" s="2">
         <v>45689</v>
       </c>
       <c r="G21">
-        <v>8.699999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H21">
-        <v>38.01</v>
+        <v>52.4</v>
       </c>
       <c r="I21">
-        <v>14.41</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="J21">
-        <v>52.66</v>
+        <v>31.79</v>
       </c>
       <c r="K21">
-        <v>2.54</v>
+        <v>2.27</v>
       </c>
       <c r="L21">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E22">
-        <v>699.98</v>
+        <v>1958.84</v>
       </c>
       <c r="F22" s="2">
         <v>45689</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="H22">
-        <v>40.09</v>
+        <v>46.16</v>
       </c>
       <c r="I22">
-        <v>17.95</v>
+        <v>30.64</v>
       </c>
       <c r="J22">
-        <v>49.22</v>
+        <v>37.14</v>
       </c>
       <c r="K22">
-        <v>0.41</v>
+        <v>1.64</v>
       </c>
       <c r="L22">
-        <v>4189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E23">
-        <v>13171.96</v>
+        <v>2082.8200000000002</v>
       </c>
       <c r="F23" s="2">
         <v>45689</v>
       </c>
       <c r="G23">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="H23">
-        <v>42.68</v>
+        <v>44.32</v>
       </c>
       <c r="I23">
-        <v>29.49</v>
+        <v>29.64</v>
       </c>
       <c r="J23">
-        <v>40.21</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="K23">
-        <v>1.31</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E24">
-        <v>1411.94</v>
+        <v>2002.74</v>
       </c>
       <c r="F24" s="2">
         <v>45689</v>
       </c>
       <c r="G24">
-        <v>5.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H24">
-        <v>34.22</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="I24">
-        <v>32.23</v>
+        <v>30.26</v>
       </c>
       <c r="J24">
-        <v>44.35</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="K24">
-        <v>0.37</v>
+        <v>2.73</v>
       </c>
       <c r="L24">
-        <v>4598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1502,37 +1603,37 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>8916.940000000001</v>
+        <v>385.34</v>
       </c>
       <c r="F25" s="2">
         <v>45689</v>
       </c>
       <c r="G25">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="H25">
-        <v>34.71</v>
+        <v>41.1</v>
       </c>
       <c r="I25">
-        <v>31.23</v>
+        <v>31.59</v>
       </c>
       <c r="J25">
-        <v>44.56</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>2.93</v>
       </c>
       <c r="L25">
-        <v>4501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1540,37 +1641,484 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E26">
-        <v>7581.29</v>
+        <v>2181.6799999999998</v>
       </c>
       <c r="F26" s="2">
         <v>45689</v>
       </c>
       <c r="G26">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>48.43</v>
+        <v>43.89</v>
       </c>
       <c r="I26">
-        <v>23.03</v>
+        <v>41.7</v>
       </c>
       <c r="J26">
-        <v>39.51</v>
+        <v>32.36</v>
       </c>
       <c r="K26">
-        <v>2.79</v>
+        <v>0.94</v>
       </c>
       <c r="L26">
-        <v>3328</v>
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>3809.76</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G27">
+        <v>6.8</v>
+      </c>
+      <c r="H27">
+        <v>43.11</v>
+      </c>
+      <c r="I27">
+        <v>41.87</v>
+      </c>
+      <c r="J27">
+        <v>32.64</v>
+      </c>
+      <c r="K27">
+        <v>1.21</v>
+      </c>
+      <c r="L27">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28">
+        <v>1820.28</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G28">
+        <v>7.6</v>
+      </c>
+      <c r="H28">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="I28">
+        <v>14.44</v>
+      </c>
+      <c r="J28">
+        <v>54.52</v>
+      </c>
+      <c r="K28">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L28">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>826.32</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G29">
+        <v>6.8</v>
+      </c>
+      <c r="H29">
+        <v>39.65</v>
+      </c>
+      <c r="I29">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J29">
+        <v>49.75</v>
+      </c>
+      <c r="K29">
+        <v>0.41</v>
+      </c>
+      <c r="L29">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>18966.78</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>41.86</v>
+      </c>
+      <c r="I30">
+        <v>29.25</v>
+      </c>
+      <c r="J30">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="K30">
+        <v>1.28</v>
+      </c>
+      <c r="L30">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>9279.44</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G31">
+        <v>4.3</v>
+      </c>
+      <c r="H31">
+        <v>55.03</v>
+      </c>
+      <c r="I31">
+        <v>32.86</v>
+      </c>
+      <c r="J31">
+        <v>30.01</v>
+      </c>
+      <c r="K31">
+        <v>2.38</v>
+      </c>
+      <c r="L31">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>10732.63</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G32">
+        <v>4.3</v>
+      </c>
+      <c r="H32">
+        <v>54.58</v>
+      </c>
+      <c r="I32">
+        <v>32.69</v>
+      </c>
+      <c r="J32">
+        <v>30.37</v>
+      </c>
+      <c r="K32">
+        <v>2.38</v>
+      </c>
+      <c r="L32">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>1904.84</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G33">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H33">
+        <v>33.9</v>
+      </c>
+      <c r="I33">
+        <v>31.48</v>
+      </c>
+      <c r="J33">
+        <v>45.03</v>
+      </c>
+      <c r="K33">
+        <v>0.43</v>
+      </c>
+      <c r="L33">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34">
+        <v>14773.68</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G34">
+        <v>6.1</v>
+      </c>
+      <c r="H34">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="I34">
+        <v>30.98</v>
+      </c>
+      <c r="J34">
+        <v>45.38</v>
+      </c>
+      <c r="K34">
+        <v>0.47</v>
+      </c>
+      <c r="L34">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35">
+        <v>22265.09</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H35">
+        <v>47.22</v>
+      </c>
+      <c r="I35">
+        <v>21.95</v>
+      </c>
+      <c r="J35">
+        <v>41.05</v>
+      </c>
+      <c r="K35">
+        <v>2.92</v>
+      </c>
+      <c r="L35">
+        <v>3490</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>142323.01</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.9473797174469549</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.8062784921426269</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3834.9374279675508</v>
+      </c>
+      <c r="F2" s="3">
+        <v>34.525294358234838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>175246.17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.559016045828562</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.6532738729753691</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3566.9358873292372</v>
+      </c>
+      <c r="F3" s="3">
+        <v>31.776051708291259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>317569.18000000011</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.7330665841061768</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.7218450042916631</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3687.0444757894952</v>
+      </c>
+      <c r="F4" s="3">
+        <v>33.008162737328597</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/化验月报汇总.xlsx
+++ b/化验月报汇总.xlsx
@@ -1,40 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2270C17487603BDAE98BBAC85363EC83B7B4566F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5B5927-8656-4368-A84A-C69F19E8D4E2}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_61601D0CADEE8BB18F292CEF4B2D4E7607AF90A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6351C7A3-DAC3-4DA3-AC92-72FECF203CDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
     <sheet name="月度统计" sheetId="2" r:id="rId2"/>
+    <sheet name="公司发热量加权平均" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="200">
   <si>
     <t>序号</t>
   </si>
@@ -261,6 +249,9 @@
     <t>大同煤矿集团北辛窑煤业有限公司（6-1火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（7-1火车）</t>
+  </si>
+  <si>
     <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（6-1）</t>
   </si>
   <si>
@@ -270,6 +261,9 @@
     <t>山西汾河焦煤股份有限公司三交河煤矿（6-1）</t>
   </si>
   <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（7-1）</t>
+  </si>
+  <si>
     <t>山西焦煤汾西矿业昊兴塬煤业（7-1）</t>
   </si>
   <si>
@@ -288,6 +282,12 @@
     <t>太原煤气化龙泉能源（7-2宝特火车）</t>
   </si>
   <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业（8-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（8-1）</t>
+  </si>
+  <si>
     <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
@@ -495,6 +495,21 @@
     <t>2025-07-太原煤气化龙泉能源</t>
   </si>
   <si>
+    <t>2025-08-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
+  </si>
+  <si>
+    <t>2025-08-山西焦煤汾西矿业昊兴塬煤业</t>
+  </si>
+  <si>
+    <t>2025-08-山西焦煤霍州煤电雪坪煤业有限公司</t>
+  </si>
+  <si>
+    <t>2025-08-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
+    <t>2025-08-太原煤气化龙泉能源</t>
+  </si>
+  <si>
     <t>大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
@@ -597,7 +612,16 @@
     <t>2025-07</t>
   </si>
   <si>
+    <t>2025-08</t>
+  </si>
+  <si>
     <t>年度累计</t>
+  </si>
+  <si>
+    <t>来煤总量</t>
+  </si>
+  <si>
+    <t>加权平均发热量</t>
   </si>
 </sst>
 </file>
@@ -977,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1031,10 +1055,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E2">
         <v>3442.2</v>
@@ -1069,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>5756.2</v>
@@ -1107,10 +1131,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E4">
         <v>27057.91</v>
@@ -1145,10 +1169,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E5">
         <v>2917.8</v>
@@ -1183,10 +1207,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <v>2502.7600000000002</v>
@@ -1221,10 +1245,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E7">
         <v>2876.64</v>
@@ -1259,10 +1283,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>523.46</v>
@@ -1297,10 +1321,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>77163.16</v>
@@ -1335,10 +1359,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>61.04</v>
@@ -1373,10 +1397,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E11">
         <v>986.26</v>
@@ -1411,10 +1435,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>3824.5</v>
@@ -1449,10 +1473,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E13">
         <v>15211.08</v>
@@ -1487,10 +1511,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E14">
         <v>12060.04</v>
@@ -1525,10 +1549,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E15">
         <v>28798.32</v>
@@ -1563,10 +1587,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E16">
         <v>283.7</v>
@@ -1601,10 +1625,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E17">
         <v>1500.5</v>
@@ -1639,10 +1663,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E18">
         <v>6806.02</v>
@@ -1677,10 +1701,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E19">
         <v>32295.49</v>
@@ -1715,10 +1739,10 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E20">
         <v>2449.42</v>
@@ -1753,10 +1777,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E21">
         <v>4962.66</v>
@@ -1791,10 +1815,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E22">
         <v>1958.84</v>
@@ -1829,10 +1853,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E23">
         <v>2485.7399999999998</v>
@@ -1867,10 +1891,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E24">
         <v>9480.3799999999992</v>
@@ -1905,10 +1929,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E25">
         <v>2002.74</v>
@@ -1943,10 +1967,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E26">
         <v>2144.02</v>
@@ -1981,10 +2005,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E27">
         <v>2181.6799999999998</v>
@@ -2019,10 +2043,10 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E28">
         <v>3809.76</v>
@@ -2057,10 +2081,10 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E29">
         <v>1820.28</v>
@@ -2095,10 +2119,10 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E30">
         <v>826.32</v>
@@ -2133,10 +2157,10 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E31">
         <v>18966.78</v>
@@ -2171,10 +2195,10 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E32">
         <v>9279.44</v>
@@ -2209,10 +2233,10 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E33">
         <v>10732.63</v>
@@ -2247,10 +2271,10 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E34">
         <v>1904.84</v>
@@ -2285,10 +2309,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E35">
         <v>14773.68</v>
@@ -2323,10 +2347,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E36">
         <v>27216.53</v>
@@ -2361,10 +2385,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E37">
         <v>3522.5</v>
@@ -2399,10 +2423,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E38">
         <v>17733.2</v>
@@ -2437,10 +2461,10 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E39">
         <v>28.56</v>
@@ -2475,10 +2499,10 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E40">
         <v>12340.99</v>
@@ -2513,10 +2537,10 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E41">
         <v>1186.1400000000001</v>
@@ -2551,10 +2575,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E42">
         <v>4235.8</v>
@@ -2589,10 +2613,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E43">
         <v>1427.8</v>
@@ -2627,10 +2651,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E44">
         <v>926.02</v>
@@ -2665,10 +2689,10 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E45">
         <v>9522</v>
@@ -2703,10 +2727,10 @@
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E46">
         <v>20.260000000000002</v>
@@ -2741,10 +2765,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E47">
         <v>1188.3599999999999</v>
@@ -2779,10 +2803,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E48">
         <v>52208.93</v>
@@ -2817,10 +2841,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E49">
         <v>11761.74</v>
@@ -2855,10 +2879,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E50">
         <v>3524.66</v>
@@ -2893,10 +2917,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E51">
         <v>10867.26</v>
@@ -2931,10 +2955,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E52">
         <v>10048.06</v>
@@ -2969,10 +2993,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E53">
         <v>12370.01</v>
@@ -3007,10 +3031,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E54">
         <v>36340.32</v>
@@ -3045,10 +3069,10 @@
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E55">
         <v>1308.68</v>
@@ -3083,10 +3107,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E56">
         <v>9900.34</v>
@@ -3121,10 +3145,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E57">
         <v>2352.94</v>
@@ -3159,10 +3183,10 @@
         <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E58">
         <v>523.9</v>
@@ -3197,10 +3221,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E59">
         <v>9355.0400000000009</v>
@@ -3235,10 +3259,10 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E60">
         <v>21068.12</v>
@@ -3273,10 +3297,10 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E61">
         <v>7531.98</v>
@@ -3311,10 +3335,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E62">
         <v>14025.5</v>
@@ -3349,10 +3373,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E63">
         <v>3342.88</v>
@@ -3387,10 +3411,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E64">
         <v>22390.22</v>
@@ -3425,10 +3449,10 @@
         <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E65">
         <v>24035.26</v>
@@ -3463,10 +3487,10 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E66">
         <v>35733.839999999997</v>
@@ -3501,10 +3525,10 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E67">
         <v>2023.1</v>
@@ -3539,10 +3563,10 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E68">
         <v>4883.32</v>
@@ -3577,10 +3601,10 @@
         <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E69">
         <v>8938.4</v>
@@ -3615,10 +3639,10 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E70">
         <v>13461.28</v>
@@ -3653,10 +3677,10 @@
         <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E71">
         <v>55.72</v>
@@ -3691,10 +3715,10 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E72">
         <v>7359.58</v>
@@ -3729,10 +3753,10 @@
         <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E73">
         <v>16323.1</v>
@@ -3767,10 +3791,10 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E74">
         <v>3636.5</v>
@@ -3805,10 +3829,10 @@
         <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E75">
         <v>1884.42</v>
@@ -3843,10 +3867,10 @@
         <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E76">
         <v>36946.61</v>
@@ -3881,10 +3905,10 @@
         <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E77">
         <v>13608.23</v>
@@ -3919,10 +3943,10 @@
         <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E78">
         <v>1581.06</v>
@@ -3957,10 +3981,10 @@
         <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E79">
         <v>3091.88</v>
@@ -3995,10 +4019,10 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E80">
         <v>866.28</v>
@@ -4033,10 +4057,10 @@
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E81">
         <v>20323.8</v>
@@ -4071,10 +4095,10 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E82">
         <v>7529.4</v>
@@ -4109,10 +4133,10 @@
         <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E83">
         <v>3386.52</v>
@@ -4147,10 +4171,10 @@
         <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E84">
         <v>7366.6660000000002</v>
@@ -4185,10 +4209,10 @@
         <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E85">
         <v>1605.86</v>
@@ -4223,10 +4247,10 @@
         <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E86">
         <v>15780.8</v>
@@ -4261,34 +4285,34 @@
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E87">
-        <v>15301.62</v>
+        <v>21117.8</v>
       </c>
       <c r="F87" s="2">
         <v>45839</v>
       </c>
       <c r="G87">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H87">
-        <v>45.98</v>
+        <v>46.1</v>
       </c>
       <c r="I87">
-        <v>41.83</v>
+        <v>41.46</v>
       </c>
       <c r="J87">
-        <v>30.97</v>
+        <v>31.1</v>
       </c>
       <c r="K87">
-        <v>0.59</v>
+        <v>1.03</v>
       </c>
       <c r="L87">
-        <v>3410</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
@@ -4299,34 +4323,34 @@
         <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E88">
-        <v>6973.04</v>
+        <v>9975.32</v>
       </c>
       <c r="F88" s="2">
         <v>45839</v>
       </c>
       <c r="G88">
-        <v>7.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H88">
-        <v>46.22</v>
+        <v>44.64</v>
       </c>
       <c r="I88">
-        <v>38.99</v>
+        <v>41.74</v>
       </c>
       <c r="J88">
-        <v>32.409999999999997</v>
+        <v>31.83</v>
       </c>
       <c r="K88">
-        <v>2.39</v>
+        <v>1.34</v>
       </c>
       <c r="L88">
-        <v>3433</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
@@ -4337,34 +4361,34 @@
         <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E89">
-        <v>3702.16</v>
+        <v>6973.04</v>
       </c>
       <c r="F89" s="2">
         <v>45839</v>
       </c>
       <c r="G89">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="H89">
-        <v>46.76</v>
+        <v>46.22</v>
       </c>
       <c r="I89">
-        <v>43.62</v>
+        <v>38.99</v>
       </c>
       <c r="J89">
-        <v>29.49</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="K89">
-        <v>0.68</v>
+        <v>2.39</v>
       </c>
       <c r="L89">
-        <v>3319</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
@@ -4375,34 +4399,34 @@
         <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E90">
-        <v>1590.94</v>
+        <v>9305.56</v>
       </c>
       <c r="F90" s="2">
         <v>45839</v>
       </c>
       <c r="G90">
-        <v>11.7</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>36.06</v>
+        <v>45.86</v>
       </c>
       <c r="I90">
-        <v>36.229999999999997</v>
+        <v>42.53</v>
       </c>
       <c r="J90">
-        <v>40.270000000000003</v>
+        <v>30.64</v>
       </c>
       <c r="K90">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="L90">
-        <v>4140</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
@@ -4410,37 +4434,37 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E91">
-        <v>839.74</v>
+        <v>1590.94</v>
       </c>
       <c r="F91" s="2">
         <v>45839</v>
       </c>
       <c r="G91">
-        <v>4.8</v>
+        <v>11.7</v>
       </c>
       <c r="H91">
-        <v>48.57</v>
+        <v>36.06</v>
       </c>
       <c r="I91">
-        <v>39.85</v>
+        <v>36.229999999999997</v>
       </c>
       <c r="J91">
-        <v>30.63</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="K91">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="L91">
-        <v>3377</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
@@ -4448,37 +4472,37 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E92">
-        <v>3114.68</v>
+        <v>3481.32</v>
       </c>
       <c r="F92" s="2">
         <v>45839</v>
       </c>
       <c r="G92">
-        <v>5.3</v>
+        <v>10.9</v>
       </c>
       <c r="H92">
-        <v>46.29</v>
+        <v>35.26</v>
       </c>
       <c r="I92">
-        <v>38.9</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="J92">
-        <v>32.549999999999997</v>
+        <v>41.36</v>
       </c>
       <c r="K92">
-        <v>1.51</v>
+        <v>2.11</v>
       </c>
       <c r="L92">
-        <v>3548</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
@@ -4486,37 +4510,37 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E93">
-        <v>330.1</v>
+        <v>839.74</v>
       </c>
       <c r="F93" s="2">
         <v>45839</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H93">
-        <v>54.87</v>
+        <v>48.57</v>
       </c>
       <c r="I93">
-        <v>35.76</v>
+        <v>39.85</v>
       </c>
       <c r="J93">
-        <v>28.76</v>
+        <v>30.63</v>
       </c>
       <c r="K93">
-        <v>2.57</v>
+        <v>1.62</v>
       </c>
       <c r="L93">
-        <v>2881</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
@@ -4527,34 +4551,34 @@
         <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E94">
-        <v>1790.1</v>
+        <v>4804.54</v>
       </c>
       <c r="F94" s="2">
         <v>45839</v>
       </c>
       <c r="G94">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="H94">
-        <v>53.85</v>
+        <v>47.42</v>
       </c>
       <c r="I94">
-        <v>26.75</v>
+        <v>39.82</v>
       </c>
       <c r="J94">
-        <v>33.28</v>
+        <v>31.37</v>
       </c>
       <c r="K94">
-        <v>0.8</v>
+        <v>1.62</v>
       </c>
       <c r="L94">
-        <v>2923</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
@@ -4562,37 +4586,37 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E95">
-        <v>2039.5</v>
+        <v>330.1</v>
       </c>
       <c r="F95" s="2">
         <v>45839</v>
       </c>
       <c r="G95">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>35.159999999999997</v>
+        <v>54.87</v>
       </c>
       <c r="I95">
-        <v>40.97</v>
+        <v>35.76</v>
       </c>
       <c r="J95">
-        <v>37.659999999999997</v>
+        <v>28.76</v>
       </c>
       <c r="K95">
-        <v>1.38</v>
+        <v>2.57</v>
       </c>
       <c r="L95">
-        <v>4196</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
@@ -4600,37 +4624,37 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E96">
-        <v>28066.04</v>
+        <v>2425.16</v>
       </c>
       <c r="F96" s="2">
         <v>45839</v>
       </c>
       <c r="G96">
-        <v>8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H96">
-        <v>33.46</v>
+        <v>53.18</v>
       </c>
       <c r="I96">
-        <v>39.42</v>
+        <v>26.58</v>
       </c>
       <c r="J96">
-        <v>39.64</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="K96">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="L96">
-        <v>4274</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
@@ -4638,37 +4662,37 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E97">
-        <v>11136.18</v>
+        <v>2039.5</v>
       </c>
       <c r="F97" s="2">
         <v>45839</v>
       </c>
       <c r="G97">
-        <v>5.0999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="H97">
-        <v>42.32</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="I97">
-        <v>29.77</v>
+        <v>40.97</v>
       </c>
       <c r="J97">
-        <v>40.130000000000003</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="K97">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="L97">
-        <v>3985</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
@@ -4676,37 +4700,37 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E98">
-        <v>4214.8999999999996</v>
+        <v>40901.14</v>
       </c>
       <c r="F98" s="2">
         <v>45839</v>
       </c>
       <c r="G98">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="H98">
-        <v>34.380000000000003</v>
+        <v>34.32</v>
       </c>
       <c r="I98">
-        <v>32.94</v>
+        <v>39.729999999999997</v>
       </c>
       <c r="J98">
-        <v>43.51</v>
+        <v>38.97</v>
       </c>
       <c r="K98">
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
       <c r="L98">
-        <v>4548</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
@@ -4714,37 +4738,341 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E99">
-        <v>3599.92</v>
+        <v>11136.18</v>
       </c>
       <c r="F99" s="2">
         <v>45839</v>
       </c>
       <c r="G99">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H99">
+        <v>42.32</v>
+      </c>
+      <c r="I99">
+        <v>29.77</v>
+      </c>
+      <c r="J99">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="K99">
+        <v>1.35</v>
+      </c>
+      <c r="L99">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100">
+        <v>9890.56</v>
+      </c>
+      <c r="F100" s="2">
+        <v>45839</v>
+      </c>
+      <c r="G100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H100">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="I100">
+        <v>32.61</v>
+      </c>
+      <c r="J100">
+        <v>43.87</v>
+      </c>
+      <c r="K100">
+        <v>0.5</v>
+      </c>
+      <c r="L100">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E101">
+        <v>3599.92</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45839</v>
+      </c>
+      <c r="G101">
         <v>4</v>
       </c>
-      <c r="H99">
+      <c r="H101">
         <v>39.51</v>
       </c>
-      <c r="I99">
+      <c r="I101">
         <v>34.979999999999997</v>
       </c>
-      <c r="J99">
+      <c r="J101">
         <v>38.869999999999997</v>
       </c>
-      <c r="K99">
+      <c r="K101">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L99">
+      <c r="L101">
         <v>4206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102">
+        <v>11336.12</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G102">
+        <v>7.3</v>
+      </c>
+      <c r="H102">
+        <v>45.69</v>
+      </c>
+      <c r="I102">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="J102">
+        <v>31.82</v>
+      </c>
+      <c r="K102">
+        <v>2.08</v>
+      </c>
+      <c r="L102">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103">
+        <v>383.3</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G103">
+        <v>5.8</v>
+      </c>
+      <c r="H103">
+        <v>40.97</v>
+      </c>
+      <c r="I103">
+        <v>36.58</v>
+      </c>
+      <c r="J103">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="K103">
+        <v>1.49</v>
+      </c>
+      <c r="L103">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" t="s">
+        <v>158</v>
+      </c>
+      <c r="D104" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104">
+        <v>245.56</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G104">
+        <v>6.9</v>
+      </c>
+      <c r="H104">
+        <v>42.93</v>
+      </c>
+      <c r="I104">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J104">
+        <v>34.86</v>
+      </c>
+      <c r="K104">
+        <v>1.5</v>
+      </c>
+      <c r="L104">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" t="s">
+        <v>159</v>
+      </c>
+      <c r="D105" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105">
+        <v>306</v>
+      </c>
+      <c r="F105" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G105">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H105">
+        <v>51.23</v>
+      </c>
+      <c r="I105">
+        <v>34.26</v>
+      </c>
+      <c r="J105">
+        <v>31.79</v>
+      </c>
+      <c r="K105">
+        <v>2.5</v>
+      </c>
+      <c r="L105">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106" t="s">
+        <v>167</v>
+      </c>
+      <c r="E106">
+        <v>6048.04</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G106">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H106">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I106">
+        <v>40.33</v>
+      </c>
+      <c r="J106">
+        <v>36.69</v>
+      </c>
+      <c r="K106">
+        <v>1.01</v>
+      </c>
+      <c r="L106">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107">
+        <v>2823.46</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G107">
+        <v>3.8</v>
+      </c>
+      <c r="H107">
+        <v>34.17</v>
+      </c>
+      <c r="I107">
+        <v>32</v>
+      </c>
+      <c r="J107">
+        <v>44.21</v>
+      </c>
+      <c r="K107">
+        <v>0.43</v>
+      </c>
+      <c r="L107">
+        <v>4612</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4766,27 +5094,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B2">
         <v>142323.01</v>
@@ -4806,7 +5134,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>198739.81</v>
@@ -4826,7 +5154,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B4">
         <v>152912.29</v>
@@ -4846,7 +5174,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>128139.92</v>
@@ -4866,7 +5194,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B6">
         <v>118334.52</v>
@@ -4886,7 +5214,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B7">
         <v>96306.305999999997</v>
@@ -4906,42 +5234,928 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B8">
-        <v>98479.719999999987</v>
+        <v>144191.62</v>
       </c>
       <c r="C8" s="3">
-        <v>6.856406354526599</v>
+        <v>6.6222103892029232</v>
       </c>
       <c r="D8" s="3">
-        <v>0.97906176418860646</v>
+        <v>1.1183373680107069</v>
       </c>
       <c r="E8" s="3">
-        <v>3842.672058368973</v>
+        <v>3849.2825931215698</v>
       </c>
       <c r="F8" s="3">
-        <v>38.502428455320548</v>
+        <v>38.766371839084691</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B9">
-        <v>935235.57600000012</v>
+        <v>21142.48</v>
       </c>
       <c r="C9" s="3">
-        <v>6.0654319274954522</v>
+        <v>7.3337990623616536</v>
       </c>
       <c r="D9" s="3">
-        <v>1.318043105280674</v>
+        <v>1.542212398923873</v>
       </c>
       <c r="E9" s="3">
-        <v>3793.8696849252442</v>
+        <v>3710.9673027951312</v>
       </c>
       <c r="F9" s="3">
-        <v>36.218023844614727</v>
+        <v>39.213936983740787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10">
+        <v>1002089.956</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.0945752941964422</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.3273500427740039</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3795.2979708440471</v>
+      </c>
+      <c r="F10" s="3">
+        <v>36.423418511641081</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>12060.04</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>28798.32</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>3522.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>60375.58</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3401.3028817280101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>88461.25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3344.1627941047632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>21117.8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>9975.32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3725.9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4356.1167234762079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>7256.7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4365.9054666721786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>6806.02</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>17733.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>6973.04</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>20641.68</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3439.2781517783442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>9279.44</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>10732.63</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>3524.66</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>10867.26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>5729.34</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4585.265217285063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>14773.68</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>17580.04</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4755.2834680694687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>14081.22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4813.3827012148104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>10702.46</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4683.4309158828919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>19709.62</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4657.5326627301802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>7366.6660000000002</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>12714.02</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4589.4401613337086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>3599.92</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>19953.04</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3957.1900512403131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>18665.580000000002</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3954.746185224355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>2002.74</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>2164.2800000000002</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4001.0748886465699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>1188.3599999999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>2502.7600000000002</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>3635.56</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4758.694957585627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>5544.48</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4278.9077569041638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>9900.34</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>3604.16</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4254.8870638373428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38">
+        <v>1590.94</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39">
+        <v>3481.32</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>2352.94</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>4883.32</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>3931.62</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3656.176878742097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43">
+        <v>5187.84</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3471.9714139217858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>245.56</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>19002.38</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4144.0700880626537</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1449.92</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3475.7480274773779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>9355.0400000000009</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>866.28</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <v>2425.16</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>2482.3000000000002</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3869.4385046126572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>2485.7399999999998</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>2876.64</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>4962.66</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>1427.8</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>330.1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56">
+        <v>306</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>1820.28</v>
+      </c>
+      <c r="C57" s="3">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58">
+        <v>2181.6799999999998</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59">
+        <v>80972.92</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3561.1411494114332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>54248.43</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3533.8657439487188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61">
+        <v>41768.259999999987</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3673.115142455059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>33785.08</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4086.258053555001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>46949.18</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4157.0960600376829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>61.04</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65">
+        <v>826.32</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66">
+        <v>22390.22</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3636.5</v>
+      </c>
+      <c r="C67" s="3">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>13608.23</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>27057.91</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>2917.8</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71">
+        <v>32324.05</v>
+      </c>
+      <c r="C71" s="3">
+        <v>5021.1298822393856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>12340.99</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73">
+        <v>1884.42</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1605.86</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <v>15211.08</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76">
+        <v>27216.53</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77">
+        <v>12370.01</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4233</v>
       </c>
     </row>
   </sheetData>

--- a/化验月报汇总.xlsx
+++ b/化验月报汇总.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_61601D0CADEE8BB18F292CEF4B2D4E7607AF90A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6351C7A3-DAC3-4DA3-AC92-72FECF203CDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
     <sheet name="月度统计" sheetId="2" r:id="rId2"/>
     <sheet name="公司发热量加权平均" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="334">
   <si>
     <t>序号</t>
   </si>
@@ -282,232 +276,586 @@
     <t>太原煤气化龙泉能源（7-2宝特火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（8-1）</t>
+  </si>
+  <si>
     <t>山西焦煤汾西矿业昊兴塬煤业（8-1）</t>
   </si>
   <si>
     <t>山西焦煤霍州煤电雪坪煤业有限公司（8-1）</t>
   </si>
   <si>
-    <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-晋能控股煤业集团翼城华泓煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>2025-01-山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-山西焦煤集团金辛达煤业</t>
-  </si>
-  <si>
-    <t>2025-01-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-山西煤炭运销集团野川有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-山西乡宁焦煤集团富康源煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-01-太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>2025-01-阳泉煤业集团翼城山凹煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-大同煤矿集团北辛窑煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-大同煤矿集团朔煤小峪煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-晋能控股煤业集团翼城华泓煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>2025-02-山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-山西焦煤集团金辛达煤业</t>
-  </si>
-  <si>
-    <t>2025-02-山西焦煤物流有限责任公司</t>
-  </si>
-  <si>
-    <t>2025-02-山西晋煤集团临汾晋牛煤矿投资有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-山西煤炭运销集团四明山煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-山西煤炭运销集团野川有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-山西乡宁焦煤集团富康源煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-02-太原煤气化股份有限公司炉峪口煤矿</t>
-  </si>
-  <si>
-    <t>2025-02-太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>2025-02-阳泉煤业集团翼城山凹煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-03-大同煤矿集团北辛窑煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-03-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
-  </si>
-  <si>
-    <t>2025-03-晋能控股煤业集团翼城华泓煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-03-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>2025-03-山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-03-山西焦煤集团杜家沟煤业</t>
-  </si>
-  <si>
-    <t>2025-03-山西焦煤物流有限责任公司</t>
-  </si>
-  <si>
-    <t>2025-03-山西晋煤集团临汾晋牛煤矿投资有限公司</t>
-  </si>
-  <si>
-    <t>2025-03-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-03-太原煤气化股份有限公司炉峪口煤矿</t>
-  </si>
-  <si>
-    <t>2025-03-太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>2025-03-阳泉煤业集团翼城山凹煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-04-大同煤矿集团北辛窑煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-04-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>2025-04-山西焦煤汾西矿业昊兴塬煤业</t>
-  </si>
-  <si>
-    <t>2025-04-山西焦煤集团杜家沟煤业</t>
-  </si>
-  <si>
-    <t>2025-04-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-04-太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>2025-04-忻州公司王家岭煤业</t>
-  </si>
-  <si>
-    <t>2025-05-大同煤矿集团北辛窑煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-05-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>2025-05-山西焦煤汾西矿业昊兴塬煤业</t>
-  </si>
-  <si>
-    <t>2025-05-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-05-太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>2025-05-忻州公司王家岭煤业</t>
-  </si>
-  <si>
-    <t>2025-05-阳泉煤业集团翼城东沟煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-06-大同煤矿集团北辛窑煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-06-晋能控股煤业集团圣厚源煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-06-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>2025-06-山西焦煤汾西矿业昊兴塬煤业</t>
-  </si>
-  <si>
-    <t>2025-06-山西焦煤集团杜家沟煤业</t>
-  </si>
-  <si>
-    <t>2025-06-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-06-山西乡宁焦煤集团富康源煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-06-太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>2025-06-阳泉煤业集团翼城东沟煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-07-大同煤矿集团北辛窑煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-07-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
-  </si>
-  <si>
-    <t>2025-07-山西汾河焦煤股份有限公司三交河煤矿</t>
-  </si>
-  <si>
-    <t>2025-07-山西焦煤汾西矿业昊兴塬煤业</t>
-  </si>
-  <si>
-    <t>2025-07-山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-07-山西焦煤集团杜家沟煤业</t>
-  </si>
-  <si>
-    <t>2025-07-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-07-山西乡宁焦煤集团富康源煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-07-太原煤气化龙泉能源</t>
-  </si>
-  <si>
-    <t>2025-08-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿</t>
-  </si>
-  <si>
-    <t>2025-08-山西焦煤汾西矿业昊兴塬煤业</t>
-  </si>
-  <si>
-    <t>2025-08-山西焦煤霍州煤电雪坪煤业有限公司</t>
-  </si>
-  <si>
-    <t>2025-08-山西煤炭运销集团莲盛有限公司</t>
-  </si>
-  <si>
-    <t>2025-08-太原煤气化龙泉能源</t>
+    <t>山西焦煤集团杜家沟煤业（8-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（8-1火车）</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司（8-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（8-1宝特火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业（9-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司（9-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团杜家沟煤业（9-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团石碣峪煤业有限公司（9-1）</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司（9-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（9-1宝特）</t>
+  </si>
+  <si>
+    <t>同煤浙能麻家梁煤业有限责任公司(5-1)</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司2025（10-1火车）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿2025（10-1）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿（9-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业2025（10-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团杜家沟煤业2025（10-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司2025（10-1火车）</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团圣厚源煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿2025（11-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业2025（11-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司2025（11-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤集团杜家沟煤业2025（11-1）</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团石碣峪煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司2025（11-1）</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿2025（11-1宝特）</t>
+  </si>
+  <si>
+    <t>太原煤气化龙泉能源（9-1宝特火车）</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司2025（11-1）</t>
+  </si>
+  <si>
+    <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司（10-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司（11-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-01-晋能控股煤业集团翼城华泓煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>2025-01-晋能控股煤业集团翼城华泓煤业有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>2025-01-山西汾河焦煤股份有限公司三交河煤矿（1-1）</t>
+  </si>
+  <si>
+    <t>2025-01-山西焦煤霍州煤电雪坪煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>2025-01-山西焦煤集团金辛达煤业（1-1）</t>
+  </si>
+  <si>
+    <t>2025-01-山西煤炭运销集团莲盛有限公司（12-1火车）</t>
+  </si>
+  <si>
+    <t>2025-01-山西煤炭运销集团野川有限公司（12-1）</t>
+  </si>
+  <si>
+    <t>2025-01-山西乡宁焦煤集团富康源煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>2025-01-太原煤气化龙泉能源（11-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-01-阳泉煤业集团翼城山凹煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>2025-02-大同煤矿集团北辛窑煤业有限公司（10-1火车）</t>
+  </si>
+  <si>
+    <t>2025-02-大同煤矿集团北辛窑煤业有限公司（11-1火车）</t>
+  </si>
+  <si>
+    <t>2025-02-大同煤矿集团朔煤小峪煤业有限公司（10-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-02-大同煤矿集团朔煤小峪煤业有限公司（11-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-02-大同煤矿集团朔煤小峪煤业有限公司（12-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-02-晋能控股煤业集团翼城华泓煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西汾河焦煤股份有限公司三交河煤矿（2-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西焦煤霍州煤电雪坪煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西焦煤集团金辛达煤业（1-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西焦煤集团金辛达煤业（2-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西焦煤物流有限责任公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西晋煤集团临汾晋牛煤矿投资有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西晋煤集团临汾晋牛煤矿投资有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西煤炭运销集团莲盛有限公司（11-1火车）</t>
+  </si>
+  <si>
+    <t>2025-02-山西煤炭运销集团莲盛有限公司（12-1火车）</t>
+  </si>
+  <si>
+    <t>2025-02-山西煤炭运销集团四明山煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西煤炭运销集团野川有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-02-山西乡宁焦煤集团富康源煤业有限公司（1-1）</t>
+  </si>
+  <si>
+    <t>2025-02-太原煤气化股份有限公司炉峪口煤矿（11-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-02-太原煤气化股份有限公司炉峪口煤矿（12-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-02-太原煤气化龙泉能源（11-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-02-太原煤气化龙泉能源（12-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-02-阳泉煤业集团翼城山凹煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-03-大同煤矿集团北辛窑煤业有限公司（3-1火车）</t>
+  </si>
+  <si>
+    <t>2025-03-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（3-1）</t>
+  </si>
+  <si>
+    <t>2025-03-晋能控股煤业集团翼城华泓煤业有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-03-晋能控股煤业集团翼城华泓煤业有限公司（3-1）</t>
+  </si>
+  <si>
+    <t>2025-03-山西汾河焦煤股份有限公司三交河煤矿（2-1）</t>
+  </si>
+  <si>
+    <t>2025-03-山西汾河焦煤股份有限公司三交河煤矿（3-1）</t>
+  </si>
+  <si>
+    <t>2025-03-山西焦煤霍州煤电雪坪煤业有限公司（3-1）</t>
+  </si>
+  <si>
+    <t>2025-03-山西焦煤集团杜家沟煤业（3-1）</t>
+  </si>
+  <si>
+    <t>2025-03-山西焦煤物流有限责任公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-03-山西晋煤集团临汾晋牛煤矿投资有限公司（2-1）</t>
+  </si>
+  <si>
+    <t>2025-03-山西晋煤集团临汾晋牛煤矿投资有限公司（3-1）</t>
+  </si>
+  <si>
+    <t>2025-03-山西煤炭运销集团莲盛有限公司（2-1火车）</t>
+  </si>
+  <si>
+    <t>2025-03-山西煤炭运销集团莲盛有限公司（3-1火车）</t>
+  </si>
+  <si>
+    <t>2025-03-太原煤气化股份有限公司炉峪口煤矿（3-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-03-太原煤气化龙泉能源（1-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-03-太原煤气化龙泉能源（2-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-03-阳泉煤业集团翼城山凹煤业有限公司（3-1）</t>
+  </si>
+  <si>
+    <t>2025-04-大同煤矿集团北辛窑煤业有限公司（4-1火车）</t>
+  </si>
+  <si>
+    <t>2025-04-山西汾河焦煤股份有限公司三交河煤矿（3-1）</t>
+  </si>
+  <si>
+    <t>2025-04-山西汾河焦煤股份有限公司三交河煤矿（4-1）</t>
+  </si>
+  <si>
+    <t>2025-04-山西焦煤汾西矿业昊兴塬煤业（4-1）</t>
+  </si>
+  <si>
+    <t>2025-04-山西焦煤集团杜家沟煤业（3-1）</t>
+  </si>
+  <si>
+    <t>2025-04-山西焦煤集团杜家沟煤业（4-1）</t>
+  </si>
+  <si>
+    <t>2025-04-山西煤炭运销集团莲盛有限公司（3-1火车）</t>
+  </si>
+  <si>
+    <t>2025-04-太原煤气化龙泉能源（2-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-04-太原煤气化龙泉能源（3-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-04-太原煤气化龙泉能源（4-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-04-忻州公司王家岭煤业（3-1）</t>
+  </si>
+  <si>
+    <t>2025-05-大同煤矿集团北辛窑煤业有限公司（4-1火车）</t>
+  </si>
+  <si>
+    <t>2025-05-大同煤矿集团北辛窑煤业有限公司（5-1火车）</t>
+  </si>
+  <si>
+    <t>2025-05-山西汾河焦煤股份有限公司三交河煤矿（5-1）</t>
+  </si>
+  <si>
+    <t>2025-05-山西焦煤汾西矿业昊兴塬煤业（5-1）</t>
+  </si>
+  <si>
+    <t>2025-05-山西煤炭运销集团莲盛有限公司（3-1火车）</t>
+  </si>
+  <si>
+    <t>2025-05-山西煤炭运销集团莲盛有限公司（4-1火车）</t>
+  </si>
+  <si>
+    <t>2025-05-太原煤气化龙泉能源（3-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-05-太原煤气化龙泉能源（4-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-05-太原煤气化龙泉能源（5-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-05-忻州公司王家岭煤业（4-1）</t>
+  </si>
+  <si>
+    <t>2025-05-阳泉煤业集团翼城东沟煤业有限公司（4-1）</t>
+  </si>
+  <si>
+    <t>2025-06-大同煤矿集团北辛窑煤业有限公司（5-1火车）</t>
+  </si>
+  <si>
+    <t>2025-06-晋能控股煤业集团圣厚源煤业有限公司（5-1）</t>
+  </si>
+  <si>
+    <t>2025-06-山西汾河焦煤股份有限公司三交河煤矿（5-1）</t>
+  </si>
+  <si>
+    <t>2025-06-山西焦煤汾西矿业昊兴塬煤业（6-1）</t>
+  </si>
+  <si>
+    <t>2025-06-山西焦煤集团杜家沟煤业（6-1）</t>
+  </si>
+  <si>
+    <t>2025-06-山西煤炭运销集团莲盛有限公司（4-1火车）</t>
+  </si>
+  <si>
+    <t>2025-06-山西乡宁焦煤集团富康源煤业有限公司（6-1）</t>
+  </si>
+  <si>
+    <t>2025-06-太原煤气化龙泉能源（5-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-06-太原煤气化龙泉能源（5-2宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-06-阳泉煤业集团翼城东沟煤业有限公司（6-1）</t>
+  </si>
+  <si>
+    <t>2025-07-大同煤矿集团北辛窑煤业有限公司（5-1火车）</t>
+  </si>
+  <si>
+    <t>2025-07-大同煤矿集团北辛窑煤业有限公司（6-1火车）</t>
+  </si>
+  <si>
+    <t>2025-07-大同煤矿集团北辛窑煤业有限公司（7-1火车）</t>
+  </si>
+  <si>
+    <t>2025-07-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（6-1）</t>
+  </si>
+  <si>
+    <t>2025-07-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（7-1）</t>
+  </si>
+  <si>
+    <t>2025-07-山西汾河焦煤股份有限公司三交河煤矿（6-1）</t>
+  </si>
+  <si>
+    <t>2025-07-山西汾河焦煤股份有限公司三交河煤矿（7-1）</t>
+  </si>
+  <si>
+    <t>2025-07-山西焦煤汾西矿业昊兴塬煤业（6-1）</t>
+  </si>
+  <si>
+    <t>2025-07-山西焦煤汾西矿业昊兴塬煤业（7-1）</t>
+  </si>
+  <si>
+    <t>2025-07-山西焦煤霍州煤电雪坪煤业有限公司（7-1）</t>
+  </si>
+  <si>
+    <t>2025-07-山西焦煤集团杜家沟煤业（7-1）</t>
+  </si>
+  <si>
+    <t>2025-07-山西煤炭运销集团莲盛有限公司（2-1火车）</t>
+  </si>
+  <si>
+    <t>2025-07-山西煤炭运销集团莲盛有限公司（7-1火车）</t>
+  </si>
+  <si>
+    <t>2025-07-山西乡宁焦煤集团富康源煤业有限公司（6-1）</t>
+  </si>
+  <si>
+    <t>2025-07-太原煤气化龙泉能源（7-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-07-太原煤气化龙泉能源（7-2宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-08-大同煤矿集团北辛窑煤业有限公司（5-1火车）</t>
+  </si>
+  <si>
+    <t>2025-08-大同煤矿集团北辛窑煤业有限公司（7-1火车）</t>
+  </si>
+  <si>
+    <t>2025-08-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（7-1）</t>
+  </si>
+  <si>
+    <t>2025-08-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（8-1）</t>
+  </si>
+  <si>
+    <t>2025-08-山西焦煤汾西矿业昊兴塬煤业（7-1）</t>
+  </si>
+  <si>
+    <t>2025-08-山西焦煤汾西矿业昊兴塬煤业（8-1）</t>
+  </si>
+  <si>
+    <t>2025-08-山西焦煤霍州煤电雪坪煤业有限公司（8-1）</t>
+  </si>
+  <si>
+    <t>2025-08-山西焦煤集团杜家沟煤业（8-1）</t>
+  </si>
+  <si>
+    <t>2025-08-山西煤炭运销集团莲盛有限公司（7-1火车）</t>
+  </si>
+  <si>
+    <t>2025-08-山西煤炭运销集团莲盛有限公司（8-1火车）</t>
+  </si>
+  <si>
+    <t>2025-08-山西乡宁焦煤集团富康源煤业有限公司（8-1）</t>
+  </si>
+  <si>
+    <t>2025-08-太原煤气化龙泉能源（7-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-08-太原煤气化龙泉能源（8-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-09-大同煤矿集团北辛窑煤业有限公司（7-1火车）</t>
+  </si>
+  <si>
+    <t>2025-09-大同煤矿集团北辛窑煤业有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>2025-09-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（8-1）</t>
+  </si>
+  <si>
+    <t>2025-09-山西焦煤汾西矿业昊兴塬煤业（9-1）</t>
+  </si>
+  <si>
+    <t>2025-09-山西焦煤霍州煤电雪坪煤业有限公司（9-1）</t>
+  </si>
+  <si>
+    <t>2025-09-山西焦煤集团杜家沟煤业（9-1）</t>
+  </si>
+  <si>
+    <t>2025-09-山西煤炭运销集团莲盛有限公司（8-1火车）</t>
+  </si>
+  <si>
+    <t>2025-09-山西煤炭运销集团莲盛有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>2025-09-山西煤炭运销集团石碣峪煤业有限公司（9-1）</t>
+  </si>
+  <si>
+    <t>2025-09-山西乡宁焦煤集团富康源煤业有限公司（9-1）</t>
+  </si>
+  <si>
+    <t>2025-09-太原煤气化股份有限公司炉峪口煤矿（9-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-09-太原煤气化龙泉能源（8-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-09-同煤浙能麻家梁煤业有限责任公司(5-1)</t>
+  </si>
+  <si>
+    <t>2025-10-大同煤矿集团北辛窑煤业有限公司2025（10-1火车）</t>
+  </si>
+  <si>
+    <t>2025-10-大同煤矿集团北辛窑煤业有限公司（7-1火车）</t>
+  </si>
+  <si>
+    <t>2025-10-大同煤矿集团北辛窑煤业有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>2025-10-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿（8-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西汾河焦煤股份有限公司三交河煤矿2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西汾河焦煤股份有限公司三交河煤矿（9-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西焦煤汾西矿业昊兴塬煤业2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西焦煤霍州煤电雪坪煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西焦煤霍州煤电雪坪煤业有限公司（9-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西焦煤集团杜家沟煤业2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西焦煤集团杜家沟煤业（9-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西煤炭运销集团莲盛有限公司2025（10-1火车）</t>
+  </si>
+  <si>
+    <t>2025-10-山西煤炭运销集团莲盛有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>2025-10-山西煤炭运销集团石碣峪煤业有限公司（9-1）</t>
+  </si>
+  <si>
+    <t>2025-10-山西乡宁焦煤集团富康源煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-10-太原煤气化龙泉能源（8-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-11-大同煤矿集团北辛窑煤业有限公司2025（10-1火车）</t>
+  </si>
+  <si>
+    <t>2025-11-晋能控股煤业集团圣厚源煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西汾河焦煤股份有限公司三交河煤矿2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西汾河焦煤股份有限公司三交河煤矿2025（11-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西焦煤汾西矿业昊兴塬煤业2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西焦煤汾西矿业昊兴塬煤业2025（11-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西焦煤霍州煤电雪坪煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西焦煤霍州煤电雪坪煤业有限公司2025（11-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西焦煤集团杜家沟煤业2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西焦煤集团杜家沟煤业2025（11-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西煤炭运销集团莲盛有限公司（9-1火车）</t>
+  </si>
+  <si>
+    <t>2025-11-山西煤炭运销集团石碣峪煤业有限公司2025（10-1）</t>
+  </si>
+  <si>
+    <t>2025-11-山西乡宁焦煤集团富康源煤业有限公司2025（11-1）</t>
+  </si>
+  <si>
+    <t>2025-11-太原煤气化股份有限公司炉峪口煤矿2025（11-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-11-太原煤气化股份有限公司炉峪口煤矿（11-1宝特）</t>
+  </si>
+  <si>
+    <t>2025-11-太原煤气化龙泉能源（8-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-11-太原煤气化龙泉能源（9-1宝特火车）</t>
+  </si>
+  <si>
+    <t>2025-11-阳泉煤业集团翼城山凹煤业有限公司2025（11-1）</t>
   </si>
   <si>
     <t>大同煤矿集团朔煤小峪煤业有限公司</t>
@@ -573,6 +921,45 @@
     <t>晋能控股煤业集团圣厚源煤业有限公司</t>
   </si>
   <si>
+    <t>山西煤炭运销集团石碣峪煤业有限公司</t>
+  </si>
+  <si>
+    <t>同煤浙能麻家梁煤业有限责任公司</t>
+  </si>
+  <si>
+    <t>大同煤矿集团北辛窑煤业有限公司2025</t>
+  </si>
+  <si>
+    <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+  </si>
+  <si>
+    <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+  </si>
+  <si>
+    <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+  </si>
+  <si>
+    <t>山西焦煤集团杜家沟煤业2025</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团莲盛有限公司2025</t>
+  </si>
+  <si>
+    <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+  </si>
+  <si>
+    <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+  </si>
+  <si>
+    <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+  </si>
+  <si>
+    <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
+  </si>
+  <si>
     <t>统计月份</t>
   </si>
   <si>
@@ -613,6 +1000,15 @@
   </si>
   <si>
     <t>2025-08</t>
+  </si>
+  <si>
+    <t>2025-09</t>
+  </si>
+  <si>
+    <t>2025-10</t>
+  </si>
+  <si>
+    <t>2025-11</t>
   </si>
   <si>
     <t>年度累计</t>
@@ -627,15 +1023,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -643,15 +1040,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -695,29 +1085,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -755,7 +1137,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -789,7 +1171,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -824,10 +1205,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1000,16 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1055,10 +1433,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="E2">
         <v>3442.2</v>
@@ -1076,7 +1454,7 @@
         <v>37.6</v>
       </c>
       <c r="J2">
-        <v>39.950000000000003</v>
+        <v>39.95</v>
       </c>
       <c r="K2">
         <v>0.49</v>
@@ -1085,7 +1463,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1093,10 +1471,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="E3">
         <v>5756.2</v>
@@ -1108,10 +1486,10 @@
         <v>6.1</v>
       </c>
       <c r="H3">
-        <v>35.130000000000003</v>
+        <v>35.13</v>
       </c>
       <c r="I3">
-        <v>38.119999999999997</v>
+        <v>38.12</v>
       </c>
       <c r="J3">
         <v>39.83</v>
@@ -1123,7 +1501,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1131,10 +1509,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="E4">
         <v>27057.91</v>
@@ -1161,7 +1539,7 @@
         <v>4877</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1169,10 +1547,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="E5">
         <v>2917.8</v>
@@ -1199,7 +1577,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1207,13 +1585,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E6">
-        <v>2502.7600000000002</v>
+        <v>2502.76</v>
       </c>
       <c r="F6" s="2">
         <v>45658</v>
@@ -1237,7 +1615,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1245,10 +1623,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="E7">
         <v>2876.64</v>
@@ -1275,7 +1653,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1283,10 +1661,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E8">
         <v>523.46</v>
@@ -1298,22 +1676,22 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>40.840000000000003</v>
+        <v>40.84</v>
       </c>
       <c r="I8">
         <v>30.27</v>
       </c>
       <c r="J8">
-        <v>40.909999999999997</v>
+        <v>40.91</v>
       </c>
       <c r="K8">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="L8">
         <v>4264</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1321,10 +1699,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E9">
         <v>77163.16</v>
@@ -1351,7 +1729,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1359,10 +1737,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="E10">
         <v>61.04</v>
@@ -1374,7 +1752,7 @@
         <v>6.5</v>
       </c>
       <c r="H10">
-        <v>39.869999999999997</v>
+        <v>39.87</v>
       </c>
       <c r="I10">
         <v>18.48</v>
@@ -1389,7 +1767,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1397,10 +1775,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="E11">
         <v>986.26</v>
@@ -1412,7 +1790,7 @@
         <v>7.9</v>
       </c>
       <c r="H11">
-        <v>39.590000000000003</v>
+        <v>39.59</v>
       </c>
       <c r="I11">
         <v>31.6</v>
@@ -1427,7 +1805,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1435,10 +1813,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E12">
         <v>3824.5</v>
@@ -1465,7 +1843,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1473,10 +1851,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="E13">
         <v>15211.08</v>
@@ -1503,7 +1881,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1511,10 +1889,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E14">
         <v>12060.04</v>
@@ -1541,7 +1919,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1549,10 +1927,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E15">
         <v>28798.32</v>
@@ -1579,7 +1957,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1587,10 +1965,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="E16">
         <v>283.7</v>
@@ -1605,7 +1983,7 @@
         <v>35.33</v>
       </c>
       <c r="I16">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="J16">
         <v>39.01</v>
@@ -1617,7 +1995,7 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1625,10 +2003,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="E17">
         <v>1500.5</v>
@@ -1646,7 +2024,7 @@
         <v>36.04</v>
       </c>
       <c r="J17">
-        <v>39.869999999999997</v>
+        <v>39.87</v>
       </c>
       <c r="K17">
         <v>0.64</v>
@@ -1655,7 +2033,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1663,10 +2041,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="E18">
         <v>6806.02</v>
@@ -1678,7 +2056,7 @@
         <v>6.3</v>
       </c>
       <c r="H18">
-        <v>35.119999999999997</v>
+        <v>35.12</v>
       </c>
       <c r="I18">
         <v>38.67</v>
@@ -1693,7 +2071,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1701,10 +2079,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="E19">
         <v>32295.49</v>
@@ -1731,7 +2109,7 @@
         <v>5021</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1739,10 +2117,10 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E20">
         <v>2449.42</v>
@@ -1757,7 +2135,7 @@
         <v>30.47</v>
       </c>
       <c r="I20">
-        <v>34.770000000000003</v>
+        <v>34.77</v>
       </c>
       <c r="J20">
         <v>45.16</v>
@@ -1769,7 +2147,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1777,10 +2155,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="E21">
         <v>4962.66</v>
@@ -1789,13 +2167,13 @@
         <v>45689</v>
       </c>
       <c r="G21">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="H21">
         <v>52.4</v>
       </c>
       <c r="I21">
-        <v>32.869999999999997</v>
+        <v>32.87</v>
       </c>
       <c r="J21">
         <v>31.79</v>
@@ -1807,7 +2185,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1815,10 +2193,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E22">
         <v>1958.84</v>
@@ -1845,7 +2223,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1853,13 +2231,13 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="E23">
-        <v>2485.7399999999998</v>
+        <v>2485.74</v>
       </c>
       <c r="F23" s="2">
         <v>45689</v>
@@ -1877,13 +2255,13 @@
         <v>39.6</v>
       </c>
       <c r="K23">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="L23">
         <v>3912</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>11</v>
       </c>
@@ -1891,13 +2269,13 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="E24">
-        <v>9480.3799999999992</v>
+        <v>9480.379999999999</v>
       </c>
       <c r="F24" s="2">
         <v>45689</v>
@@ -1912,7 +2290,7 @@
         <v>41.18</v>
       </c>
       <c r="J24">
-        <v>36.020000000000003</v>
+        <v>36.02</v>
       </c>
       <c r="K24">
         <v>1.54</v>
@@ -1921,7 +2299,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1929,10 +2307,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="E25">
         <v>2002.74</v>
@@ -1941,16 +2319,16 @@
         <v>45689</v>
       </c>
       <c r="G25">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H25">
-        <v>40.869999999999997</v>
+        <v>40.87</v>
       </c>
       <c r="I25">
         <v>30.26</v>
       </c>
       <c r="J25">
-        <v>40.869999999999997</v>
+        <v>40.87</v>
       </c>
       <c r="K25">
         <v>2.73</v>
@@ -1959,7 +2337,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1967,10 +2345,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="E26">
         <v>2144.02</v>
@@ -1997,7 +2375,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2005,13 +2383,13 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E27">
-        <v>2181.6799999999998</v>
+        <v>2181.68</v>
       </c>
       <c r="F27" s="2">
         <v>45689</v>
@@ -2029,13 +2407,13 @@
         <v>32.36</v>
       </c>
       <c r="K27">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L27">
         <v>3508</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>15</v>
       </c>
@@ -2043,10 +2421,10 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E28">
         <v>3809.76</v>
@@ -2073,7 +2451,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>16</v>
       </c>
@@ -2081,10 +2459,10 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="E29">
         <v>1820.28</v>
@@ -2096,7 +2474,7 @@
         <v>7.6</v>
       </c>
       <c r="H29">
-        <v>35.869999999999997</v>
+        <v>35.87</v>
       </c>
       <c r="I29">
         <v>14.44</v>
@@ -2105,13 +2483,13 @@
         <v>54.52</v>
       </c>
       <c r="K29">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="L29">
         <v>4637</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>17</v>
       </c>
@@ -2119,13 +2497,13 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="E30">
-        <v>826.32</v>
+        <v>826.3200000000001</v>
       </c>
       <c r="F30" s="2">
         <v>45689</v>
@@ -2137,7 +2515,7 @@
         <v>39.65</v>
       </c>
       <c r="I30">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="J30">
         <v>49.75</v>
@@ -2149,7 +2527,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>18</v>
       </c>
@@ -2157,10 +2535,10 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="E31">
         <v>18966.78</v>
@@ -2178,7 +2556,7 @@
         <v>29.25</v>
       </c>
       <c r="J31">
-        <v>40.909999999999997</v>
+        <v>40.91</v>
       </c>
       <c r="K31">
         <v>1.28</v>
@@ -2187,7 +2565,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>19</v>
       </c>
@@ -2195,13 +2573,13 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="E32">
-        <v>9279.44</v>
+        <v>9279.440000000001</v>
       </c>
       <c r="F32" s="2">
         <v>45689</v>
@@ -2225,7 +2603,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>20</v>
       </c>
@@ -2233,10 +2611,10 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="E33">
         <v>10732.63</v>
@@ -2263,7 +2641,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>21</v>
       </c>
@@ -2271,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E34">
         <v>1904.84</v>
@@ -2283,7 +2661,7 @@
         <v>45689</v>
       </c>
       <c r="G34">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H34">
         <v>33.9</v>
@@ -2301,7 +2679,7 @@
         <v>4638</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>22</v>
       </c>
@@ -2309,10 +2687,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E35">
         <v>14773.68</v>
@@ -2324,7 +2702,7 @@
         <v>6.1</v>
       </c>
       <c r="H35">
-        <v>33.729999999999997</v>
+        <v>33.73</v>
       </c>
       <c r="I35">
         <v>30.98</v>
@@ -2339,7 +2717,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>23</v>
       </c>
@@ -2347,10 +2725,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="E36">
         <v>27216.53</v>
@@ -2359,7 +2737,7 @@
         <v>45689</v>
       </c>
       <c r="G36">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="H36">
         <v>45.26</v>
@@ -2377,7 +2755,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2385,10 +2763,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E37">
         <v>3522.5</v>
@@ -2415,7 +2793,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2423,10 +2801,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="E38">
         <v>17733.2</v>
@@ -2453,7 +2831,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2461,10 +2839,10 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="E39">
         <v>28.56</v>
@@ -2491,7 +2869,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2499,10 +2877,10 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="E40">
         <v>12340.99</v>
@@ -2514,7 +2892,7 @@
         <v>5.2</v>
       </c>
       <c r="H40">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="I40">
         <v>15.77</v>
@@ -2529,7 +2907,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2537,25 +2915,25 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E41">
-        <v>1186.1400000000001</v>
+        <v>1186.14</v>
       </c>
       <c r="F41" s="2">
         <v>45717</v>
       </c>
       <c r="G41">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H41">
         <v>31.13</v>
       </c>
       <c r="I41">
-        <v>34.729999999999997</v>
+        <v>34.73</v>
       </c>
       <c r="J41">
         <v>44.51</v>
@@ -2567,7 +2945,7 @@
         <v>4756</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>6</v>
       </c>
@@ -2575,10 +2953,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E42">
         <v>4235.8</v>
@@ -2590,7 +2968,7 @@
         <v>13.5</v>
       </c>
       <c r="H42">
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="I42">
         <v>36.18</v>
@@ -2599,13 +2977,13 @@
         <v>41.71</v>
       </c>
       <c r="K42">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="L42">
         <v>4252</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>7</v>
       </c>
@@ -2613,10 +2991,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="E43">
         <v>1427.8</v>
@@ -2643,7 +3021,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>8</v>
       </c>
@@ -2651,10 +3029,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="E44">
         <v>926.02</v>
@@ -2681,7 +3059,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>9</v>
       </c>
@@ -2689,10 +3067,10 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="E45">
         <v>9522</v>
@@ -2704,7 +3082,7 @@
         <v>6.9</v>
       </c>
       <c r="H45">
-        <v>39.229999999999997</v>
+        <v>39.23</v>
       </c>
       <c r="I45">
         <v>37.03</v>
@@ -2719,7 +3097,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>10</v>
       </c>
@@ -2727,13 +3105,13 @@
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="E46">
-        <v>20.260000000000002</v>
+        <v>20.26</v>
       </c>
       <c r="F46" s="2">
         <v>45717</v>
@@ -2757,7 +3135,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>11</v>
       </c>
@@ -2765,13 +3143,13 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="E47">
-        <v>1188.3599999999999</v>
+        <v>1188.36</v>
       </c>
       <c r="F47" s="2">
         <v>45717</v>
@@ -2795,7 +3173,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>12</v>
       </c>
@@ -2803,10 +3181,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E48">
         <v>52208.93</v>
@@ -2827,13 +3205,13 @@
         <v>31.5</v>
       </c>
       <c r="K48">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="L48">
         <v>3508</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>13</v>
       </c>
@@ -2841,10 +3219,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E49">
         <v>11761.74</v>
@@ -2871,7 +3249,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>14</v>
       </c>
@@ -2879,10 +3257,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="E50">
         <v>3524.66</v>
@@ -2897,7 +3275,7 @@
         <v>60.52</v>
       </c>
       <c r="I50">
-        <v>36.369999999999997</v>
+        <v>36.37</v>
       </c>
       <c r="J50">
         <v>25.04</v>
@@ -2909,7 +3287,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>15</v>
       </c>
@@ -2917,10 +3295,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E51">
         <v>10867.26</v>
@@ -2947,7 +3325,7 @@
         <v>4738</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>16</v>
       </c>
@@ -2955,10 +3333,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E52">
         <v>10048.06</v>
@@ -2985,7 +3363,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>17</v>
       </c>
@@ -2993,10 +3371,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="E53">
         <v>12370.01</v>
@@ -3005,13 +3383,13 @@
         <v>45717</v>
       </c>
       <c r="G53">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H53">
         <v>39.61</v>
       </c>
       <c r="I53">
-        <v>17.579999999999998</v>
+        <v>17.58</v>
       </c>
       <c r="J53">
         <v>49.55</v>
@@ -3023,7 +3401,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3031,10 +3409,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E54">
         <v>36340.32</v>
@@ -3043,7 +3421,7 @@
         <v>45748</v>
       </c>
       <c r="G54">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H54">
         <v>46.36</v>
@@ -3061,7 +3439,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3069,10 +3447,10 @@
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E55">
         <v>1308.68</v>
@@ -3099,7 +3477,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3107,10 +3485,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E56">
         <v>9900.34</v>
@@ -3125,7 +3503,7 @@
         <v>33.08</v>
       </c>
       <c r="I56">
-        <v>34.950000000000003</v>
+        <v>34.95</v>
       </c>
       <c r="J56">
         <v>43.17</v>
@@ -3137,7 +3515,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>4</v>
       </c>
@@ -3145,10 +3523,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="E57">
         <v>2352.94</v>
@@ -3163,10 +3541,10 @@
         <v>42.67</v>
       </c>
       <c r="I57">
-        <v>36.979999999999997</v>
+        <v>36.98</v>
       </c>
       <c r="J57">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="K57">
         <v>1.45</v>
@@ -3175,7 +3553,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>5</v>
       </c>
@@ -3183,10 +3561,10 @@
         <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="E58">
         <v>523.9</v>
@@ -3195,7 +3573,7 @@
         <v>45748</v>
       </c>
       <c r="G58">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H58">
         <v>48.69</v>
@@ -3213,7 +3591,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>6</v>
       </c>
@@ -3221,13 +3599,13 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="E59">
-        <v>9355.0400000000009</v>
+        <v>9355.040000000001</v>
       </c>
       <c r="F59" s="2">
         <v>45748</v>
@@ -3251,7 +3629,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>7</v>
       </c>
@@ -3259,10 +3637,10 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E60">
         <v>21068.12</v>
@@ -3289,7 +3667,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>8</v>
       </c>
@@ -3297,10 +3675,10 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E61">
         <v>7531.98</v>
@@ -3309,7 +3687,7 @@
         <v>45748</v>
       </c>
       <c r="G61">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H61">
         <v>32.58</v>
@@ -3327,7 +3705,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>9</v>
       </c>
@@ -3335,10 +3713,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E62">
         <v>14025.5</v>
@@ -3365,7 +3743,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>10</v>
       </c>
@@ -3373,10 +3751,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E63">
         <v>3342.88</v>
@@ -3388,10 +3766,10 @@
         <v>4.2</v>
       </c>
       <c r="H63">
-        <v>33.130000000000003</v>
+        <v>33.13</v>
       </c>
       <c r="I63">
-        <v>32.049999999999997</v>
+        <v>32.05</v>
       </c>
       <c r="J63">
         <v>45.06</v>
@@ -3403,7 +3781,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>11</v>
       </c>
@@ -3411,10 +3789,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="E64">
         <v>22390.22</v>
@@ -3441,7 +3819,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3449,10 +3827,10 @@
         <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E65">
         <v>24035.26</v>
@@ -3461,7 +3839,7 @@
         <v>45778</v>
       </c>
       <c r="G65">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H65">
         <v>45.79</v>
@@ -3479,7 +3857,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3487,13 +3865,13 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E66">
-        <v>35733.839999999997</v>
+        <v>35733.84</v>
       </c>
       <c r="F66" s="2">
         <v>45778</v>
@@ -3517,7 +3895,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3525,10 +3903,10 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E67">
         <v>2023.1</v>
@@ -3555,7 +3933,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>4</v>
       </c>
@@ -3563,10 +3941,10 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="E68">
         <v>4883.32</v>
@@ -3584,7 +3962,7 @@
         <v>36.93</v>
       </c>
       <c r="J68">
-        <v>35.549999999999997</v>
+        <v>35.55</v>
       </c>
       <c r="K68">
         <v>1.26</v>
@@ -3593,7 +3971,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>5</v>
       </c>
@@ -3601,10 +3979,10 @@
         <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E69">
         <v>8938.4</v>
@@ -3631,7 +4009,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>6</v>
       </c>
@@ -3639,10 +4017,10 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E70">
         <v>13461.28</v>
@@ -3669,7 +4047,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>7</v>
       </c>
@@ -3677,10 +4055,10 @@
         <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E71">
         <v>55.72</v>
@@ -3695,7 +4073,7 @@
         <v>33.44</v>
       </c>
       <c r="I71">
-        <v>32.380000000000003</v>
+        <v>32.38</v>
       </c>
       <c r="J71">
         <v>44.51</v>
@@ -3707,7 +4085,7 @@
         <v>4658</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>8</v>
       </c>
@@ -3715,10 +4093,10 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E72">
         <v>7359.58</v>
@@ -3733,7 +4111,7 @@
         <v>33.22</v>
       </c>
       <c r="I72">
-        <v>32.409999999999997</v>
+        <v>32.41</v>
       </c>
       <c r="J72">
         <v>44.63</v>
@@ -3745,7 +4123,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>9</v>
       </c>
@@ -3753,10 +4131,10 @@
         <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E73">
         <v>16323.1</v>
@@ -3783,7 +4161,7 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>10</v>
       </c>
@@ -3791,10 +4169,10 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="E74">
         <v>3636.5</v>
@@ -3815,13 +4193,13 @@
         <v>31.98</v>
       </c>
       <c r="K74">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="L74">
         <v>3542</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>11</v>
       </c>
@@ -3829,10 +4207,10 @@
         <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="E75">
         <v>1884.42</v>
@@ -3859,7 +4237,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3867,10 +4245,10 @@
         <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E76">
         <v>36946.61</v>
@@ -3897,7 +4275,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3905,10 +4283,10 @@
         <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="E77">
         <v>13608.23</v>
@@ -3929,13 +4307,13 @@
         <v>35.14</v>
       </c>
       <c r="K77">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="L77">
         <v>3913</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3943,10 +4321,10 @@
         <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="D78" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E78">
         <v>1581.06</v>
@@ -3973,7 +4351,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>4</v>
       </c>
@@ -3981,10 +4359,10 @@
         <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="E79">
         <v>3091.88</v>
@@ -4011,7 +4389,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>5</v>
       </c>
@@ -4019,10 +4397,10 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="E80">
         <v>866.28</v>
@@ -4043,13 +4421,13 @@
         <v>36.69</v>
       </c>
       <c r="K80">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L80">
         <v>2954</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>6</v>
       </c>
@@ -4057,10 +4435,10 @@
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E81">
         <v>20323.8</v>
@@ -4072,7 +4450,7 @@
         <v>7</v>
       </c>
       <c r="H81">
-        <v>37.409999999999997</v>
+        <v>37.41</v>
       </c>
       <c r="I81">
         <v>41.55</v>
@@ -4081,13 +4459,13 @@
         <v>36</v>
       </c>
       <c r="K81">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="L81">
         <v>3999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>7</v>
       </c>
@@ -4095,10 +4473,10 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="E82">
         <v>7529.4</v>
@@ -4116,7 +4494,7 @@
         <v>30.56</v>
       </c>
       <c r="J82">
-        <v>39.380000000000003</v>
+        <v>39.38</v>
       </c>
       <c r="K82">
         <v>1.74</v>
@@ -4125,7 +4503,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>8</v>
       </c>
@@ -4133,10 +4511,10 @@
         <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="D83" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E83">
         <v>3386.52</v>
@@ -4145,13 +4523,13 @@
         <v>45809</v>
       </c>
       <c r="G83">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="H83">
         <v>33.6</v>
       </c>
       <c r="I83">
-        <v>32.869999999999997</v>
+        <v>32.87</v>
       </c>
       <c r="J83">
         <v>44.17</v>
@@ -4163,7 +4541,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>9</v>
       </c>
@@ -4171,28 +4549,28 @@
         <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E84">
-        <v>7366.6660000000002</v>
+        <v>7366.666</v>
       </c>
       <c r="F84" s="2">
         <v>45809</v>
       </c>
       <c r="G84">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="H84">
         <v>42.44</v>
       </c>
       <c r="I84">
-        <v>36.450000000000003</v>
+        <v>36.45</v>
       </c>
       <c r="J84">
-        <v>36.130000000000003</v>
+        <v>36.13</v>
       </c>
       <c r="K84">
         <v>0.51</v>
@@ -4201,7 +4579,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>10</v>
       </c>
@@ -4209,10 +4587,10 @@
         <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="E85">
         <v>1605.86</v>
@@ -4221,7 +4599,7 @@
         <v>45809</v>
       </c>
       <c r="G85">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="H85">
         <v>33.18</v>
@@ -4239,7 +4617,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4247,10 +4625,10 @@
         <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E86">
         <v>15780.8</v>
@@ -4268,7 +4646,7 @@
         <v>41.83</v>
       </c>
       <c r="J86">
-        <v>33.020000000000003</v>
+        <v>33.02</v>
       </c>
       <c r="K86">
         <v>0.66</v>
@@ -4277,7 +4655,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>2</v>
       </c>
@@ -4285,10 +4663,10 @@
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E87">
         <v>21117.8</v>
@@ -4315,7 +4693,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4323,10 +4701,10 @@
         <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="E88">
         <v>9975.32</v>
@@ -4335,7 +4713,7 @@
         <v>45839</v>
       </c>
       <c r="G88">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="H88">
         <v>44.64</v>
@@ -4353,7 +4731,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>4</v>
       </c>
@@ -4361,10 +4739,10 @@
         <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="E89">
         <v>6973.04</v>
@@ -4382,7 +4760,7 @@
         <v>38.99</v>
       </c>
       <c r="J89">
-        <v>32.409999999999997</v>
+        <v>32.41</v>
       </c>
       <c r="K89">
         <v>2.39</v>
@@ -4391,7 +4769,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>5</v>
       </c>
@@ -4399,13 +4777,13 @@
         <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="E90">
-        <v>9305.56</v>
+        <v>9305.559999999999</v>
       </c>
       <c r="F90" s="2">
         <v>45839</v>
@@ -4429,7 +4807,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>6</v>
       </c>
@@ -4437,10 +4815,10 @@
         <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="D91" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E91">
         <v>1590.94</v>
@@ -4455,10 +4833,10 @@
         <v>36.06</v>
       </c>
       <c r="I91">
-        <v>36.229999999999997</v>
+        <v>36.23</v>
       </c>
       <c r="J91">
-        <v>40.270000000000003</v>
+        <v>40.27</v>
       </c>
       <c r="K91">
         <v>1.93</v>
@@ -4467,7 +4845,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>7</v>
       </c>
@@ -4475,10 +4853,10 @@
         <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="E92">
         <v>3481.32</v>
@@ -4493,7 +4871,7 @@
         <v>35.26</v>
       </c>
       <c r="I92">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="J92">
         <v>41.36</v>
@@ -4505,7 +4883,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>8</v>
       </c>
@@ -4513,10 +4891,10 @@
         <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="E93">
         <v>839.74</v>
@@ -4543,7 +4921,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>9</v>
       </c>
@@ -4551,10 +4929,10 @@
         <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="E94">
         <v>4804.54</v>
@@ -4581,7 +4959,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>10</v>
       </c>
@@ -4589,10 +4967,10 @@
         <v>81</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="E95">
         <v>330.1</v>
@@ -4619,7 +4997,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>11</v>
       </c>
@@ -4627,10 +5005,10 @@
         <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="D96" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="E96">
         <v>2425.16</v>
@@ -4639,7 +5017,7 @@
         <v>45839</v>
       </c>
       <c r="G96">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H96">
         <v>53.18</v>
@@ -4648,7 +5026,7 @@
         <v>26.58</v>
       </c>
       <c r="J96">
-        <v>33.869999999999997</v>
+        <v>33.87</v>
       </c>
       <c r="K96">
         <v>0.76</v>
@@ -4657,7 +5035,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>12</v>
       </c>
@@ -4665,10 +5043,10 @@
         <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E97">
         <v>2039.5</v>
@@ -4680,13 +5058,13 @@
         <v>7.6</v>
       </c>
       <c r="H97">
-        <v>35.159999999999997</v>
+        <v>35.16</v>
       </c>
       <c r="I97">
         <v>40.97</v>
       </c>
       <c r="J97">
-        <v>37.659999999999997</v>
+        <v>37.66</v>
       </c>
       <c r="K97">
         <v>1.38</v>
@@ -4695,7 +5073,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4703,10 +5081,10 @@
         <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="D98" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="E98">
         <v>40901.14</v>
@@ -4721,7 +5099,7 @@
         <v>34.32</v>
       </c>
       <c r="I98">
-        <v>39.729999999999997</v>
+        <v>39.73</v>
       </c>
       <c r="J98">
         <v>38.97</v>
@@ -4733,7 +5111,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>14</v>
       </c>
@@ -4741,10 +5119,10 @@
         <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="D99" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="E99">
         <v>11136.18</v>
@@ -4753,7 +5131,7 @@
         <v>45839</v>
       </c>
       <c r="G99">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H99">
         <v>42.32</v>
@@ -4762,7 +5140,7 @@
         <v>29.77</v>
       </c>
       <c r="J99">
-        <v>40.130000000000003</v>
+        <v>40.13</v>
       </c>
       <c r="K99">
         <v>1.35</v>
@@ -4771,7 +5149,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>15</v>
       </c>
@@ -4779,22 +5157,22 @@
         <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E100">
-        <v>9890.56</v>
+        <v>9890.559999999999</v>
       </c>
       <c r="F100" s="2">
         <v>45839</v>
       </c>
       <c r="G100">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H100">
-        <v>34.130000000000003</v>
+        <v>34.13</v>
       </c>
       <c r="I100">
         <v>32.61</v>
@@ -4809,7 +5187,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>16</v>
       </c>
@@ -4817,10 +5195,10 @@
         <v>85</v>
       </c>
       <c r="C101" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="E101">
         <v>3599.92</v>
@@ -4835,332 +5213,2383 @@
         <v>39.51</v>
       </c>
       <c r="I101">
-        <v>34.979999999999997</v>
+        <v>34.98</v>
       </c>
       <c r="J101">
-        <v>38.869999999999997</v>
+        <v>38.87</v>
       </c>
       <c r="K101">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="L101">
         <v>4206</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="D102" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="E102">
-        <v>11336.12</v>
+        <v>4415.76</v>
       </c>
       <c r="F102" s="2">
         <v>45870</v>
       </c>
       <c r="G102">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="H102">
-        <v>45.69</v>
+        <v>47.49</v>
       </c>
       <c r="I102">
-        <v>40.659999999999997</v>
+        <v>41.52</v>
       </c>
       <c r="J102">
-        <v>31.82</v>
+        <v>30.29</v>
       </c>
       <c r="K102">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="L102">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="D103" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="E103">
-        <v>383.3</v>
+        <v>35022.82</v>
       </c>
       <c r="F103" s="2">
         <v>45870</v>
       </c>
       <c r="G103">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="H103">
-        <v>40.97</v>
+        <v>46.08</v>
       </c>
       <c r="I103">
-        <v>36.58</v>
+        <v>41.26</v>
       </c>
       <c r="J103">
-        <v>37.090000000000003</v>
+        <v>31.28</v>
       </c>
       <c r="K103">
-        <v>1.49</v>
+        <v>2.19</v>
       </c>
       <c r="L103">
-        <v>3973</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="D104" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="E104">
-        <v>245.56</v>
+        <v>44189.06</v>
       </c>
       <c r="F104" s="2">
         <v>45870</v>
       </c>
       <c r="G104">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="H104">
-        <v>42.93</v>
+        <v>45.14</v>
       </c>
       <c r="I104">
-        <v>38.200000000000003</v>
+        <v>40.32</v>
       </c>
       <c r="J104">
-        <v>34.86</v>
+        <v>32.42</v>
       </c>
       <c r="K104">
-        <v>1.5</v>
+        <v>2.46</v>
       </c>
       <c r="L104">
-        <v>3713</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c r="E105">
-        <v>306</v>
+        <v>20420.15</v>
       </c>
       <c r="F105" s="2">
         <v>45870</v>
       </c>
       <c r="G105">
-        <v>4.5999999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="H105">
-        <v>51.23</v>
+        <v>46.95</v>
       </c>
       <c r="I105">
-        <v>34.26</v>
+        <v>41</v>
       </c>
       <c r="J105">
-        <v>31.79</v>
+        <v>30.93</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="L105">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="D106" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="E106">
-        <v>6048.04</v>
+        <v>383.3</v>
       </c>
       <c r="F106" s="2">
         <v>45870</v>
       </c>
       <c r="G106">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
       <c r="H106">
-        <v>37.700000000000003</v>
+        <v>40.97</v>
       </c>
       <c r="I106">
-        <v>40.33</v>
+        <v>36.58</v>
       </c>
       <c r="J106">
-        <v>36.69</v>
+        <v>37.09</v>
       </c>
       <c r="K106">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="L106">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C107" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c r="E107">
-        <v>2823.46</v>
+        <v>2580.46</v>
       </c>
       <c r="F107" s="2">
         <v>45870</v>
       </c>
       <c r="G107">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="H107">
-        <v>34.17</v>
+        <v>47.24</v>
       </c>
       <c r="I107">
-        <v>32</v>
+        <v>39.37</v>
       </c>
       <c r="J107">
-        <v>44.21</v>
+        <v>31.68</v>
       </c>
       <c r="K107">
-        <v>0.43</v>
+        <v>1.79</v>
       </c>
       <c r="L107">
-        <v>4612</v>
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108">
+        <v>1168.9</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G108">
+        <v>4.1</v>
+      </c>
+      <c r="H108">
+        <v>51.2</v>
+      </c>
+      <c r="I108">
+        <v>33.41</v>
+      </c>
+      <c r="J108">
+        <v>32.34</v>
+      </c>
+      <c r="K108">
+        <v>2.76</v>
+      </c>
+      <c r="L108">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109">
+        <v>1708.18</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G109">
+        <v>10.7</v>
+      </c>
+      <c r="H109">
+        <v>48.84</v>
+      </c>
+      <c r="I109">
+        <v>26.23</v>
+      </c>
+      <c r="J109">
+        <v>37.2</v>
+      </c>
+      <c r="K109">
+        <v>0.74</v>
+      </c>
+      <c r="L109">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" t="s">
+        <v>285</v>
+      </c>
+      <c r="E110">
+        <v>7118.22</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G110">
+        <v>9.1</v>
+      </c>
+      <c r="H110">
+        <v>37.65</v>
+      </c>
+      <c r="I110">
+        <v>40.29</v>
+      </c>
+      <c r="J110">
+        <v>36.74</v>
+      </c>
+      <c r="K110">
+        <v>1.07</v>
+      </c>
+      <c r="L110">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" t="s">
+        <v>285</v>
+      </c>
+      <c r="E111">
+        <v>19512.04</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G111">
+        <v>7.8</v>
+      </c>
+      <c r="H111">
+        <v>38.93</v>
+      </c>
+      <c r="I111">
+        <v>42.16</v>
+      </c>
+      <c r="J111">
+        <v>34.78</v>
+      </c>
+      <c r="K111">
+        <v>1.13</v>
+      </c>
+      <c r="L111">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112">
+        <v>19961.7</v>
+      </c>
+      <c r="F112" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G112">
+        <v>6</v>
+      </c>
+      <c r="H112">
+        <v>42.21</v>
+      </c>
+      <c r="I112">
+        <v>33.36</v>
+      </c>
+      <c r="J112">
+        <v>38.1</v>
+      </c>
+      <c r="K112">
+        <v>1.65</v>
+      </c>
+      <c r="L112">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" t="s">
+        <v>288</v>
+      </c>
+      <c r="E113">
+        <v>7578.94</v>
+      </c>
+      <c r="F113" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G113">
+        <v>4.3</v>
+      </c>
+      <c r="H113">
+        <v>34.49</v>
+      </c>
+      <c r="I113">
+        <v>32.61</v>
+      </c>
+      <c r="J113">
+        <v>43.64</v>
+      </c>
+      <c r="K113">
+        <v>0.48</v>
+      </c>
+      <c r="L113">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" t="s">
+        <v>288</v>
+      </c>
+      <c r="E114">
+        <v>1165.62</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45870</v>
+      </c>
+      <c r="G114">
+        <v>4.5</v>
+      </c>
+      <c r="H114">
+        <v>34.35</v>
+      </c>
+      <c r="I114">
+        <v>32.52</v>
+      </c>
+      <c r="J114">
+        <v>43.81</v>
+      </c>
+      <c r="K114">
+        <v>0.4</v>
+      </c>
+      <c r="L114">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" t="s">
+        <v>290</v>
+      </c>
+      <c r="E115">
+        <v>6876.38</v>
+      </c>
+      <c r="F115" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G115">
+        <v>7.8</v>
+      </c>
+      <c r="H115">
+        <v>50.76</v>
+      </c>
+      <c r="I115">
+        <v>42.71</v>
+      </c>
+      <c r="J115">
+        <v>27.72</v>
+      </c>
+      <c r="K115">
+        <v>0.39</v>
+      </c>
+      <c r="L115">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" t="s">
+        <v>290</v>
+      </c>
+      <c r="E116">
+        <v>3472.02</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G116">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H116">
+        <v>55.66</v>
+      </c>
+      <c r="I116">
+        <v>44.7</v>
+      </c>
+      <c r="J116">
+        <v>24.09</v>
+      </c>
+      <c r="K116">
+        <v>0.57</v>
+      </c>
+      <c r="L116">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" t="s">
+        <v>235</v>
+      </c>
+      <c r="D117" t="s">
+        <v>295</v>
+      </c>
+      <c r="E117">
+        <v>16864.3</v>
+      </c>
+      <c r="F117" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G117">
+        <v>7.5</v>
+      </c>
+      <c r="H117">
+        <v>41.74</v>
+      </c>
+      <c r="I117">
+        <v>39.61</v>
+      </c>
+      <c r="J117">
+        <v>34.71</v>
+      </c>
+      <c r="K117">
+        <v>3.31</v>
+      </c>
+      <c r="L117">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" t="s">
+        <v>297</v>
+      </c>
+      <c r="E118">
+        <v>1912.62</v>
+      </c>
+      <c r="F118" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G118">
+        <v>6.6</v>
+      </c>
+      <c r="H118">
+        <v>45.87</v>
+      </c>
+      <c r="I118">
+        <v>38.75</v>
+      </c>
+      <c r="J118">
+        <v>32.77</v>
+      </c>
+      <c r="K118">
+        <v>1.75</v>
+      </c>
+      <c r="L118">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119">
+        <v>2309.3</v>
+      </c>
+      <c r="F119" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119">
+        <v>51.87</v>
+      </c>
+      <c r="I119">
+        <v>34.13</v>
+      </c>
+      <c r="J119">
+        <v>31.41</v>
+      </c>
+      <c r="K119">
+        <v>3.62</v>
+      </c>
+      <c r="L119">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" t="s">
+        <v>296</v>
+      </c>
+      <c r="E120">
+        <v>1253.24</v>
+      </c>
+      <c r="F120" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G120">
+        <v>11</v>
+      </c>
+      <c r="H120">
+        <v>48.17</v>
+      </c>
+      <c r="I120">
+        <v>27.15</v>
+      </c>
+      <c r="J120">
+        <v>37.14</v>
+      </c>
+      <c r="K120">
+        <v>0.63</v>
+      </c>
+      <c r="L120">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" t="s">
+        <v>285</v>
+      </c>
+      <c r="E121">
+        <v>32265.8</v>
+      </c>
+      <c r="F121" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G121">
+        <v>9.1</v>
+      </c>
+      <c r="H121">
+        <v>33.13</v>
+      </c>
+      <c r="I121">
+        <v>39.66</v>
+      </c>
+      <c r="J121">
+        <v>39.72</v>
+      </c>
+      <c r="K121">
+        <v>0.96</v>
+      </c>
+      <c r="L121">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" t="s">
+        <v>285</v>
+      </c>
+      <c r="E122">
+        <v>6814.36</v>
+      </c>
+      <c r="F122" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G122">
+        <v>10.4</v>
+      </c>
+      <c r="H122">
+        <v>35.93</v>
+      </c>
+      <c r="I122">
+        <v>40.61</v>
+      </c>
+      <c r="J122">
+        <v>37.44</v>
+      </c>
+      <c r="K122">
+        <v>0.9</v>
+      </c>
+      <c r="L122">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" t="s">
+        <v>241</v>
+      </c>
+      <c r="D123" t="s">
+        <v>301</v>
+      </c>
+      <c r="E123">
+        <v>14774.2</v>
+      </c>
+      <c r="F123" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G123">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H123">
+        <v>51.15</v>
+      </c>
+      <c r="I123">
+        <v>44.74</v>
+      </c>
+      <c r="J123">
+        <v>26.59</v>
+      </c>
+      <c r="K123">
+        <v>1.04</v>
+      </c>
+      <c r="L123">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" t="s">
+        <v>287</v>
+      </c>
+      <c r="E124">
+        <v>39774.23</v>
+      </c>
+      <c r="F124" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>42.13</v>
+      </c>
+      <c r="I124">
+        <v>35.35</v>
+      </c>
+      <c r="J124">
+        <v>36.97</v>
+      </c>
+      <c r="K124">
+        <v>1.74</v>
+      </c>
+      <c r="L124">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>100</v>
+      </c>
+      <c r="C125" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" t="s">
+        <v>294</v>
+      </c>
+      <c r="E125">
+        <v>3675.34</v>
+      </c>
+      <c r="F125" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G125">
+        <v>5.1</v>
+      </c>
+      <c r="H125">
+        <v>42.86</v>
+      </c>
+      <c r="I125">
+        <v>28.33</v>
+      </c>
+      <c r="J125">
+        <v>40.57</v>
+      </c>
+      <c r="K125">
+        <v>2.47</v>
+      </c>
+      <c r="L125">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" t="s">
+        <v>244</v>
+      </c>
+      <c r="D126" t="s">
+        <v>288</v>
+      </c>
+      <c r="E126">
+        <v>3976.24</v>
+      </c>
+      <c r="F126" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G126">
+        <v>5.7</v>
+      </c>
+      <c r="H126">
+        <v>33.71</v>
+      </c>
+      <c r="I126">
+        <v>33.01</v>
+      </c>
+      <c r="J126">
+        <v>43.85</v>
+      </c>
+      <c r="K126">
+        <v>0.5</v>
+      </c>
+      <c r="L126">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" t="s">
+        <v>245</v>
+      </c>
+      <c r="D127" t="s">
+        <v>302</v>
+      </c>
+      <c r="E127">
+        <v>142.1</v>
+      </c>
+      <c r="F127" s="2">
+        <v>45901</v>
+      </c>
+      <c r="G127">
+        <v>10.2</v>
+      </c>
+      <c r="H127">
+        <v>35.75</v>
+      </c>
+      <c r="I127">
+        <v>40.01</v>
+      </c>
+      <c r="J127">
+        <v>38.08</v>
+      </c>
+      <c r="K127">
+        <v>0.98</v>
+      </c>
+      <c r="L127">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" t="s">
+        <v>246</v>
+      </c>
+      <c r="D128" t="s">
+        <v>303</v>
+      </c>
+      <c r="E128">
+        <v>3409.48</v>
+      </c>
+      <c r="F128" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G128">
+        <v>6.3</v>
+      </c>
+      <c r="H128">
+        <v>46.54</v>
+      </c>
+      <c r="I128">
+        <v>41.39</v>
+      </c>
+      <c r="J128">
+        <v>30.79</v>
+      </c>
+      <c r="K128">
+        <v>0.53</v>
+      </c>
+      <c r="L128">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129" t="s">
+        <v>247</v>
+      </c>
+      <c r="D129" t="s">
+        <v>290</v>
+      </c>
+      <c r="E129">
+        <v>4793.96</v>
+      </c>
+      <c r="F129" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G129">
+        <v>7.6</v>
+      </c>
+      <c r="H129">
+        <v>52.91</v>
+      </c>
+      <c r="I129">
+        <v>44.32</v>
+      </c>
+      <c r="J129">
+        <v>25.69</v>
+      </c>
+      <c r="K129">
+        <v>0.99</v>
+      </c>
+      <c r="L129">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" t="s">
+        <v>248</v>
+      </c>
+      <c r="D130" t="s">
+        <v>290</v>
+      </c>
+      <c r="E130">
+        <v>17268.6</v>
+      </c>
+      <c r="F130" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G130">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H130">
+        <v>48.83</v>
+      </c>
+      <c r="I130">
+        <v>43.59</v>
+      </c>
+      <c r="J130">
+        <v>28.44</v>
+      </c>
+      <c r="K130">
+        <v>0.99</v>
+      </c>
+      <c r="L130">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" t="s">
+        <v>249</v>
+      </c>
+      <c r="D131" t="s">
+        <v>295</v>
+      </c>
+      <c r="E131">
+        <v>2743.7</v>
+      </c>
+      <c r="F131" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G131">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H131">
+        <v>36.94</v>
+      </c>
+      <c r="I131">
+        <v>39.77</v>
+      </c>
+      <c r="J131">
+        <v>37.33</v>
+      </c>
+      <c r="K131">
+        <v>1.22</v>
+      </c>
+      <c r="L131">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" t="s">
+        <v>304</v>
+      </c>
+      <c r="E132">
+        <v>3634.76</v>
+      </c>
+      <c r="F132" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G132">
+        <v>13.2</v>
+      </c>
+      <c r="H132">
+        <v>37.85</v>
+      </c>
+      <c r="I132">
+        <v>36.13</v>
+      </c>
+      <c r="J132">
+        <v>39.27</v>
+      </c>
+      <c r="K132">
+        <v>1.97</v>
+      </c>
+      <c r="L132">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" t="s">
+        <v>251</v>
+      </c>
+      <c r="D133" t="s">
+        <v>282</v>
+      </c>
+      <c r="E133">
+        <v>553.74</v>
+      </c>
+      <c r="F133" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G133">
+        <v>14.8</v>
+      </c>
+      <c r="H133">
+        <v>34.56</v>
+      </c>
+      <c r="I133">
+        <v>34.34</v>
+      </c>
+      <c r="J133">
+        <v>42.52</v>
+      </c>
+      <c r="K133">
+        <v>1.42</v>
+      </c>
+      <c r="L133">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" t="s">
+        <v>252</v>
+      </c>
+      <c r="D134" t="s">
+        <v>305</v>
+      </c>
+      <c r="E134">
+        <v>1370.36</v>
+      </c>
+      <c r="F134" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G134">
+        <v>7.7</v>
+      </c>
+      <c r="H134">
+        <v>43.59</v>
+      </c>
+      <c r="I134">
+        <v>38.74</v>
+      </c>
+      <c r="J134">
+        <v>34.16</v>
+      </c>
+      <c r="K134">
+        <v>1.3</v>
+      </c>
+      <c r="L134">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" t="s">
+        <v>253</v>
+      </c>
+      <c r="D135" t="s">
+        <v>306</v>
+      </c>
+      <c r="E135">
+        <v>3115.8</v>
+      </c>
+      <c r="F135" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G135">
+        <v>5.6</v>
+      </c>
+      <c r="H135">
+        <v>49.58</v>
+      </c>
+      <c r="I135">
+        <v>33</v>
+      </c>
+      <c r="J135">
+        <v>33.53</v>
+      </c>
+      <c r="K135">
+        <v>3.21</v>
+      </c>
+      <c r="L135">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" t="s">
+        <v>254</v>
+      </c>
+      <c r="D136" t="s">
+        <v>283</v>
+      </c>
+      <c r="E136">
+        <v>153.88</v>
+      </c>
+      <c r="F136" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G136">
+        <v>4.4</v>
+      </c>
+      <c r="H136">
+        <v>54.77</v>
+      </c>
+      <c r="I136">
+        <v>35.79</v>
+      </c>
+      <c r="J136">
+        <v>28.67</v>
+      </c>
+      <c r="K136">
+        <v>3.07</v>
+      </c>
+      <c r="L136">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" t="s">
+        <v>255</v>
+      </c>
+      <c r="D137" t="s">
+        <v>307</v>
+      </c>
+      <c r="E137">
+        <v>2774.7</v>
+      </c>
+      <c r="F137" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G137">
+        <v>9.1</v>
+      </c>
+      <c r="H137">
+        <v>48.43</v>
+      </c>
+      <c r="I137">
+        <v>26.13</v>
+      </c>
+      <c r="J137">
+        <v>37.51</v>
+      </c>
+      <c r="K137">
+        <v>0.65</v>
+      </c>
+      <c r="L137">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" t="s">
+        <v>256</v>
+      </c>
+      <c r="D138" t="s">
+        <v>296</v>
+      </c>
+      <c r="E138">
+        <v>353.48</v>
+      </c>
+      <c r="F138" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G138">
+        <v>12.8</v>
+      </c>
+      <c r="H138">
+        <v>52.24</v>
+      </c>
+      <c r="I138">
+        <v>28.38</v>
+      </c>
+      <c r="J138">
+        <v>33.51</v>
+      </c>
+      <c r="K138">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L138">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139" t="s">
+        <v>257</v>
+      </c>
+      <c r="D139" t="s">
+        <v>308</v>
+      </c>
+      <c r="E139">
+        <v>31628.56</v>
+      </c>
+      <c r="F139" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G139">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H139">
+        <v>47.82</v>
+      </c>
+      <c r="I139">
+        <v>43.37</v>
+      </c>
+      <c r="J139">
+        <v>29.15</v>
+      </c>
+      <c r="K139">
+        <v>0.98</v>
+      </c>
+      <c r="L139">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140" t="s">
+        <v>258</v>
+      </c>
+      <c r="D140" t="s">
+        <v>285</v>
+      </c>
+      <c r="E140">
+        <v>13495.52</v>
+      </c>
+      <c r="F140" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G140">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H140">
+        <v>40.95</v>
+      </c>
+      <c r="I140">
+        <v>42.2</v>
+      </c>
+      <c r="J140">
+        <v>33.79</v>
+      </c>
+      <c r="K140">
+        <v>1.02</v>
+      </c>
+      <c r="L140">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141" t="s">
+        <v>259</v>
+      </c>
+      <c r="D141" t="s">
+        <v>301</v>
+      </c>
+      <c r="E141">
+        <v>3539.67</v>
+      </c>
+      <c r="F141" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G141">
+        <v>8.1</v>
+      </c>
+      <c r="H141">
+        <v>53.01</v>
+      </c>
+      <c r="I141">
+        <v>45.28</v>
+      </c>
+      <c r="J141">
+        <v>25.33</v>
+      </c>
+      <c r="K141">
+        <v>1.1</v>
+      </c>
+      <c r="L141">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C142" t="s">
+        <v>260</v>
+      </c>
+      <c r="D142" t="s">
+        <v>309</v>
+      </c>
+      <c r="E142">
+        <v>47616.57</v>
+      </c>
+      <c r="F142" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G142">
+        <v>6.7</v>
+      </c>
+      <c r="H142">
+        <v>41.09</v>
+      </c>
+      <c r="I142">
+        <v>35.71</v>
+      </c>
+      <c r="J142">
+        <v>37.38</v>
+      </c>
+      <c r="K142">
+        <v>1.65</v>
+      </c>
+      <c r="L142">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" t="s">
+        <v>261</v>
+      </c>
+      <c r="D143" t="s">
+        <v>288</v>
+      </c>
+      <c r="E143">
+        <v>9939.540000000001</v>
+      </c>
+      <c r="F143" s="2">
+        <v>45931</v>
+      </c>
+      <c r="G143">
+        <v>7.4</v>
+      </c>
+      <c r="H143">
+        <v>33</v>
+      </c>
+      <c r="I143">
+        <v>32.86</v>
+      </c>
+      <c r="J143">
+        <v>44.47</v>
+      </c>
+      <c r="K143">
+        <v>0.6</v>
+      </c>
+      <c r="L143">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" t="s">
+        <v>262</v>
+      </c>
+      <c r="D144" t="s">
+        <v>303</v>
+      </c>
+      <c r="E144">
+        <v>26465.8</v>
+      </c>
+      <c r="F144" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G144">
+        <v>7.9</v>
+      </c>
+      <c r="H144">
+        <v>44.03</v>
+      </c>
+      <c r="I144">
+        <v>42.6</v>
+      </c>
+      <c r="J144">
+        <v>31.78</v>
+      </c>
+      <c r="K144">
+        <v>0.82</v>
+      </c>
+      <c r="L144">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" t="s">
+        <v>263</v>
+      </c>
+      <c r="D145" t="s">
+        <v>310</v>
+      </c>
+      <c r="E145">
+        <v>6497.44</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G145">
+        <v>10.7</v>
+      </c>
+      <c r="H145">
+        <v>36.07</v>
+      </c>
+      <c r="I145">
+        <v>41.44</v>
+      </c>
+      <c r="J145">
+        <v>37.03</v>
+      </c>
+      <c r="K145">
+        <v>0.67</v>
+      </c>
+      <c r="L145">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" t="s">
+        <v>264</v>
+      </c>
+      <c r="D146" t="s">
+        <v>304</v>
+      </c>
+      <c r="E146">
+        <v>1635.34</v>
+      </c>
+      <c r="F146" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G146">
+        <v>13.6</v>
+      </c>
+      <c r="H146">
+        <v>38.03</v>
+      </c>
+      <c r="I146">
+        <v>35.14</v>
+      </c>
+      <c r="J146">
+        <v>39.79</v>
+      </c>
+      <c r="K146">
+        <v>1.67</v>
+      </c>
+      <c r="L146">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" t="s">
+        <v>265</v>
+      </c>
+      <c r="D147" t="s">
+        <v>304</v>
+      </c>
+      <c r="E147">
+        <v>2436.32</v>
+      </c>
+      <c r="F147" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G147">
+        <v>14</v>
+      </c>
+      <c r="H147">
+        <v>35.25</v>
+      </c>
+      <c r="I147">
+        <v>35.75</v>
+      </c>
+      <c r="J147">
+        <v>41.16</v>
+      </c>
+      <c r="K147">
+        <v>1.88</v>
+      </c>
+      <c r="L147">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>105</v>
+      </c>
+      <c r="C148" t="s">
+        <v>266</v>
+      </c>
+      <c r="D148" t="s">
+        <v>305</v>
+      </c>
+      <c r="E148">
+        <v>450</v>
+      </c>
+      <c r="F148" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G148">
+        <v>5.7</v>
+      </c>
+      <c r="H148">
+        <v>43.41</v>
+      </c>
+      <c r="I148">
+        <v>39.6</v>
+      </c>
+      <c r="J148">
+        <v>33.76</v>
+      </c>
+      <c r="K148">
+        <v>1.26</v>
+      </c>
+      <c r="L148">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" t="s">
+        <v>267</v>
+      </c>
+      <c r="D149" t="s">
+        <v>305</v>
+      </c>
+      <c r="E149">
+        <v>2451.6</v>
+      </c>
+      <c r="F149" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G149">
+        <v>6.8</v>
+      </c>
+      <c r="H149">
+        <v>46.86</v>
+      </c>
+      <c r="I149">
+        <v>40.71</v>
+      </c>
+      <c r="J149">
+        <v>31.23</v>
+      </c>
+      <c r="K149">
+        <v>1.4</v>
+      </c>
+      <c r="L149">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>106</v>
+      </c>
+      <c r="C150" t="s">
+        <v>268</v>
+      </c>
+      <c r="D150" t="s">
+        <v>306</v>
+      </c>
+      <c r="E150">
+        <v>528.8</v>
+      </c>
+      <c r="F150" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G150">
+        <v>5.9</v>
+      </c>
+      <c r="H150">
+        <v>46.93</v>
+      </c>
+      <c r="I150">
+        <v>32.31</v>
+      </c>
+      <c r="J150">
+        <v>35.68</v>
+      </c>
+      <c r="K150">
+        <v>3.45</v>
+      </c>
+      <c r="L150">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" t="s">
+        <v>269</v>
+      </c>
+      <c r="D151" t="s">
+        <v>306</v>
+      </c>
+      <c r="E151">
+        <v>2447.52</v>
+      </c>
+      <c r="F151" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G151">
+        <v>4.7</v>
+      </c>
+      <c r="H151">
+        <v>51.94</v>
+      </c>
+      <c r="I151">
+        <v>34.25</v>
+      </c>
+      <c r="J151">
+        <v>31.38</v>
+      </c>
+      <c r="K151">
+        <v>4.4</v>
+      </c>
+      <c r="L151">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152" t="s">
+        <v>270</v>
+      </c>
+      <c r="D152" t="s">
+        <v>307</v>
+      </c>
+      <c r="E152">
+        <v>29.1</v>
+      </c>
+      <c r="F152" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G152">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H152">
+        <v>55.66</v>
+      </c>
+      <c r="I152">
+        <v>28.18</v>
+      </c>
+      <c r="J152">
+        <v>31.36</v>
+      </c>
+      <c r="K152">
+        <v>0.68</v>
+      </c>
+      <c r="L152">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" t="s">
+        <v>271</v>
+      </c>
+      <c r="D153" t="s">
+        <v>307</v>
+      </c>
+      <c r="E153">
+        <v>1032.38</v>
+      </c>
+      <c r="F153" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G153">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H153">
+        <v>52.58</v>
+      </c>
+      <c r="I153">
+        <v>26.75</v>
+      </c>
+      <c r="J153">
+        <v>34.39</v>
+      </c>
+      <c r="K153">
+        <v>0.65</v>
+      </c>
+      <c r="L153">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" t="s">
+        <v>272</v>
+      </c>
+      <c r="D154" t="s">
+        <v>285</v>
+      </c>
+      <c r="E154">
+        <v>7419.5</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G154">
+        <v>10.1</v>
+      </c>
+      <c r="H154">
+        <v>38.03</v>
+      </c>
+      <c r="I154">
+        <v>42.91</v>
+      </c>
+      <c r="J154">
+        <v>34.58</v>
+      </c>
+      <c r="K154">
+        <v>0.76</v>
+      </c>
+      <c r="L154">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" t="s">
+        <v>273</v>
+      </c>
+      <c r="D155" t="s">
+        <v>311</v>
+      </c>
+      <c r="E155">
+        <v>10406.74</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G155">
+        <v>7.1</v>
+      </c>
+      <c r="H155">
+        <v>47.65</v>
+      </c>
+      <c r="I155">
+        <v>43.95</v>
+      </c>
+      <c r="J155">
+        <v>29.04</v>
+      </c>
+      <c r="K155">
+        <v>0.82</v>
+      </c>
+      <c r="L155">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" t="s">
+        <v>274</v>
+      </c>
+      <c r="D156" t="s">
+        <v>309</v>
+      </c>
+      <c r="E156">
+        <v>35994.37</v>
+      </c>
+      <c r="F156" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G156">
+        <v>6.3</v>
+      </c>
+      <c r="H156">
+        <v>41.97</v>
+      </c>
+      <c r="I156">
+        <v>35</v>
+      </c>
+      <c r="J156">
+        <v>37.44</v>
+      </c>
+      <c r="K156">
+        <v>1.8</v>
+      </c>
+      <c r="L156">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" t="s">
+        <v>275</v>
+      </c>
+      <c r="D157" t="s">
+        <v>312</v>
+      </c>
+      <c r="E157">
+        <v>3680.82</v>
+      </c>
+      <c r="F157" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G157">
+        <v>7.6</v>
+      </c>
+      <c r="H157">
+        <v>53.9</v>
+      </c>
+      <c r="I157">
+        <v>32.68</v>
+      </c>
+      <c r="J157">
+        <v>30.84</v>
+      </c>
+      <c r="K157">
+        <v>1.86</v>
+      </c>
+      <c r="L157">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>37</v>
+      </c>
+      <c r="C158" t="s">
+        <v>276</v>
+      </c>
+      <c r="D158" t="s">
+        <v>294</v>
+      </c>
+      <c r="E158">
+        <v>3680.82</v>
+      </c>
+      <c r="F158" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G158">
+        <v>7.6</v>
+      </c>
+      <c r="H158">
+        <v>53.9</v>
+      </c>
+      <c r="I158">
+        <v>32.68</v>
+      </c>
+      <c r="J158">
+        <v>30.84</v>
+      </c>
+      <c r="K158">
+        <v>1.86</v>
+      </c>
+      <c r="L158">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>16</v>
+      </c>
+      <c r="B159" t="s">
+        <v>92</v>
+      </c>
+      <c r="C159" t="s">
+        <v>277</v>
+      </c>
+      <c r="D159" t="s">
+        <v>288</v>
+      </c>
+      <c r="E159">
+        <v>3393.76</v>
+      </c>
+      <c r="F159" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G159">
+        <v>2.8</v>
+      </c>
+      <c r="H159">
+        <v>31.94</v>
+      </c>
+      <c r="I159">
+        <v>31.64</v>
+      </c>
+      <c r="J159">
+        <v>46.12</v>
+      </c>
+      <c r="K159">
+        <v>0.53</v>
+      </c>
+      <c r="L159">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>17</v>
+      </c>
+      <c r="B160" t="s">
+        <v>118</v>
+      </c>
+      <c r="C160" t="s">
+        <v>278</v>
+      </c>
+      <c r="D160" t="s">
+        <v>288</v>
+      </c>
+      <c r="E160">
+        <v>4088.82</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G160">
+        <v>5.2</v>
+      </c>
+      <c r="H160">
+        <v>35.25</v>
+      </c>
+      <c r="I160">
+        <v>31.9</v>
+      </c>
+      <c r="J160">
+        <v>43.55</v>
+      </c>
+      <c r="K160">
+        <v>0.7</v>
+      </c>
+      <c r="L160">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" t="s">
+        <v>279</v>
+      </c>
+      <c r="D161" t="s">
+        <v>313</v>
+      </c>
+      <c r="E161">
+        <v>10656.33</v>
+      </c>
+      <c r="F161" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G161">
+        <v>5.3</v>
+      </c>
+      <c r="H161">
+        <v>27.61</v>
+      </c>
+      <c r="I161">
+        <v>13.48</v>
+      </c>
+      <c r="J161">
+        <v>62.33</v>
+      </c>
+      <c r="K161">
+        <v>3.73</v>
+      </c>
+      <c r="L161">
+        <v>5344</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="6" width="9.125" style="3"/>
+    <col min="3" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>315</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>316</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>320</v>
       </c>
       <c r="B2">
         <v>142323.01</v>
       </c>
       <c r="C2" s="3">
-        <v>5.9473797174469549</v>
+        <v>5.947379717446955</v>
       </c>
       <c r="D2" s="3">
-        <v>1.8062784921426269</v>
+        <v>1.806278492142627</v>
       </c>
       <c r="E2" s="3">
-        <v>3834.9374279675508</v>
+        <v>3834.937427967551</v>
       </c>
       <c r="F2" s="3">
-        <v>34.525294358234838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>34.52529435823484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="B3">
         <v>198739.81</v>
       </c>
       <c r="C3" s="3">
-        <v>5.6174797540563208</v>
+        <v>5.617479754056321</v>
       </c>
       <c r="D3" s="3">
-        <v>1.7658101328566229</v>
+        <v>1.765810132856623</v>
       </c>
       <c r="E3" s="3">
-        <v>3672.4051923970351</v>
+        <v>3672.405192397035</v>
       </c>
       <c r="F3" s="3">
         <v>31.22121554609517</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="B4">
         <v>152912.29</v>
       </c>
       <c r="C4" s="3">
-        <v>6.1802952136809939</v>
+        <v>6.180295213680994</v>
       </c>
       <c r="D4" s="3">
         <v>1.829532711857236</v>
@@ -5169,997 +7598,1405 @@
         <v>3883.348739071268</v>
       </c>
       <c r="F4" s="3">
-        <v>36.075400159790952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>36.07540015979095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="B5">
         <v>128139.92</v>
       </c>
       <c r="C5" s="3">
-        <v>6.3700898517807714</v>
+        <v>6.370089851780771</v>
       </c>
       <c r="D5" s="3">
-        <v>0.76739196340999749</v>
+        <v>0.7673919634099975</v>
       </c>
       <c r="E5" s="3">
         <v>3861.999503823632</v>
       </c>
       <c r="F5" s="3">
-        <v>37.897895494237858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>37.89789549423786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="B6">
         <v>118334.52</v>
       </c>
       <c r="C6" s="3">
-        <v>5.8523796268409267</v>
+        <v>5.852379626840927</v>
       </c>
       <c r="D6" s="3">
-        <v>0.54546030017276448</v>
+        <v>0.5454603001727645</v>
       </c>
       <c r="E6" s="3">
-        <v>3780.8903560854428</v>
+        <v>3780.890356085443</v>
       </c>
       <c r="F6" s="3">
         <v>40.00705530727636</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="B7">
-        <v>96306.305999999997</v>
+        <v>96306.306</v>
       </c>
       <c r="C7" s="3">
-        <v>6.0295165967636652</v>
+        <v>6.029516596763665</v>
       </c>
       <c r="D7" s="3">
-        <v>0.88896513131756916</v>
+        <v>0.8889651313175692</v>
       </c>
       <c r="E7" s="3">
-        <v>3717.1582733118221</v>
+        <v>3717.158273311822</v>
       </c>
       <c r="F7" s="3">
-        <v>40.030740294410208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>40.03074029441021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="B8">
         <v>144191.62</v>
       </c>
       <c r="C8" s="3">
-        <v>6.6222103892029232</v>
+        <v>6.622210389202923</v>
       </c>
       <c r="D8" s="3">
-        <v>1.1183373680107069</v>
+        <v>1.118337368010707</v>
       </c>
       <c r="E8" s="3">
-        <v>3849.2825931215698</v>
+        <v>3849.28259312157</v>
       </c>
       <c r="F8" s="3">
-        <v>38.766371839084691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>38.76637183908469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
       <c r="B9">
-        <v>21142.48</v>
+        <v>165225.15</v>
       </c>
       <c r="C9" s="3">
-        <v>7.3337990623616536</v>
+        <v>6.518849539552544</v>
       </c>
       <c r="D9" s="3">
-        <v>1.542212398923873</v>
+        <v>1.913645276763253</v>
       </c>
       <c r="E9" s="3">
-        <v>3710.9673027951312</v>
+        <v>3649.506371578418</v>
       </c>
       <c r="F9" s="3">
-        <v>39.213936983740787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>39.38373480187489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="B10">
-        <v>1002089.956</v>
+        <v>134110.13</v>
       </c>
       <c r="C10" s="3">
-        <v>6.0945752941964422</v>
+        <v>7.616266407317629</v>
       </c>
       <c r="D10" s="3">
-        <v>1.3273500427740039</v>
+        <v>1.535035815713549</v>
       </c>
       <c r="E10" s="3">
-        <v>3795.2979708440471</v>
+        <v>3820.118991011343</v>
       </c>
       <c r="F10" s="3">
-        <v>36.423418511641081</v>
+        <v>38.53782945777475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11">
+        <v>146392.32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.386099407400605</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.246476952479474</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3550.539622638674</v>
+      </c>
+      <c r="F11" s="3">
+        <v>39.19776154035949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12">
+        <v>123295.46</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.282313006496752</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.522472150231647</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3864.891717018615</v>
+      </c>
+      <c r="F12" s="3">
+        <v>36.0582844996888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13">
+        <v>1549970.536</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.565473860981833</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.412770525632753</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3765.473611241602</v>
+      </c>
+      <c r="F13" s="3">
+        <v>37.11685575479869</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>142.1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>29875.28</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3513.767308624388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>12060.04</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C4" s="3">
         <v>2303</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>28798.32</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C5" s="3">
         <v>2056</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>3522.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C6" s="3">
         <v>3563</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>60375.58</v>
       </c>
-      <c r="C5" s="3">
-        <v>3401.3028817280101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C7" s="3">
+        <v>3401.30288172801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B6">
-        <v>88461.25</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3344.1627941047632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>92877.00999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3344.107510028585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>21117.8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C9" s="3">
         <v>3425</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="B8">
-        <v>9975.32</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>56668.48</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3378.883012214197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11">
+        <v>20740.62</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2924.211038049971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B12">
         <v>3725.9</v>
       </c>
-      <c r="C9" s="3">
-        <v>4356.1167234762079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C12" s="3">
+        <v>4356.116723476208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>7256.7</v>
       </c>
-      <c r="C10" s="3">
-        <v>4365.9054666721786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C13" s="3">
+        <v>4365.905466672179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>6806.02</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C14" s="3">
         <v>4365</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B12">
+      <c r="B15">
         <v>17733.2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C15" s="3">
         <v>3418</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B13">
+      <c r="B16">
         <v>6973.04</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C16" s="3">
         <v>3433</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B14">
-        <v>20641.68</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3439.2781517783442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B17">
+        <v>53494.62</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3540.73676156593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>40028.15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3613.135846897746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>3680.82</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>9279.44</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="B20">
+        <v>12960.26</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2928.620450515653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>10732.63</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C21" s="3">
         <v>2958</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>3524.66</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C22" s="3">
         <v>2283</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>3675.34</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B18">
+      <c r="B24">
         <v>10867.26</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C24" s="3">
         <v>4738</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B25">
         <v>5729.34</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C25" s="3">
         <v>4585.265217285063</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B20">
+      <c r="B26">
         <v>14773.68</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C26" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B21">
+      <c r="B27">
         <v>17580.04</v>
       </c>
-      <c r="C21" s="3">
-        <v>4755.2834680694687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="C27" s="3">
+        <v>4755.283468069469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B22">
+      <c r="B28">
         <v>14081.22</v>
       </c>
-      <c r="C22" s="3">
-        <v>4813.3827012148104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="C28" s="3">
+        <v>4813.38270121481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B23">
+      <c r="B29">
         <v>10702.46</v>
       </c>
-      <c r="C23" s="3">
-        <v>4683.4309158828919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="C29" s="3">
+        <v>4683.430915882892</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B24">
+      <c r="B30">
         <v>19709.62</v>
       </c>
-      <c r="C24" s="3">
-        <v>4657.5326627301802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="C30" s="3">
+        <v>4657.53266273018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>72</v>
       </c>
-      <c r="B25">
-        <v>7366.6660000000002</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B31">
+        <v>7366.666</v>
+      </c>
+      <c r="C31" s="3">
         <v>3930</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>84</v>
       </c>
-      <c r="B26">
-        <v>12714.02</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4589.4401613337086</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="B32">
+        <v>17469.5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4588.206060848908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>85</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <v>3599.92</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C33" s="3">
         <v>4206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34">
+        <v>18475.16</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4666.705313512845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35">
+        <v>4088.82</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36">
+        <v>47616.57</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37">
+        <v>35994.37</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>21</v>
       </c>
-      <c r="B28">
+      <c r="B38">
         <v>19953.04</v>
       </c>
-      <c r="C28" s="3">
-        <v>3957.1900512403131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="C38" s="3">
+        <v>3957.190051240313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>71</v>
       </c>
-      <c r="B29">
-        <v>18665.580000000002</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B39">
+        <v>18665.58</v>
+      </c>
+      <c r="C39" s="3">
         <v>3954.746185224355</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40">
+        <v>19961.7</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41">
+        <v>39774.23</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B42">
         <v>2002.74</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C42" s="3">
         <v>4004</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>2164.2800000000002</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4001.0748886465699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="B43">
+        <v>2164.28</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4001.07488864657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B32">
-        <v>1188.3599999999999</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B44">
+        <v>1188.36</v>
+      </c>
+      <c r="C44" s="3">
         <v>3944</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45">
+        <v>5270.1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3957.484734635016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46">
+        <v>2436.32</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B33">
-        <v>2502.7600000000002</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B47">
+        <v>2502.76</v>
+      </c>
+      <c r="C47" s="3">
         <v>4422</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B48">
         <v>3635.56</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C48" s="3">
         <v>4758.694957585627</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>44</v>
       </c>
-      <c r="B35">
+      <c r="B49">
         <v>5544.48</v>
       </c>
-      <c r="C35" s="3">
-        <v>4278.9077569041638</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="C49" s="3">
+        <v>4278.907756904164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B36">
+      <c r="B50">
         <v>9900.34</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C50" s="3">
         <v>4422</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>62</v>
       </c>
-      <c r="B37">
+      <c r="B51">
         <v>3604.16</v>
       </c>
-      <c r="C37" s="3">
-        <v>4254.8870638373428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="C51" s="3">
+        <v>4254.887063837343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>78</v>
       </c>
-      <c r="B38">
+      <c r="B52">
         <v>1590.94</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C52" s="3">
         <v>4140</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>79</v>
       </c>
-      <c r="B39">
+      <c r="B53">
         <v>3481.32</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C53" s="3">
         <v>4243</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54">
+        <v>553.74</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55">
+        <v>1820.36</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3757.63090817201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56">
+        <v>2451.6</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B40">
+      <c r="B57">
         <v>2352.94</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C57" s="3">
         <v>3918</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B41">
+      <c r="B58">
         <v>4883.32</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C58" s="3">
         <v>3779</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B42">
+      <c r="B59">
         <v>3931.62</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C59" s="3">
         <v>3656.176878742097</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>80</v>
       </c>
-      <c r="B43">
+      <c r="B60">
         <v>5187.84</v>
       </c>
-      <c r="C43" s="3">
-        <v>3471.9714139217858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44">
-        <v>245.56</v>
-      </c>
-      <c r="C44" s="3">
-        <v>3713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="C60" s="3">
+        <v>3471.971413921786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>2580.46</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62">
+        <v>1912.62</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>31</v>
       </c>
-      <c r="B45">
+      <c r="B63">
         <v>19002.38</v>
       </c>
-      <c r="C45" s="3">
-        <v>4144.0700880626537</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="C63" s="3">
+        <v>4144.070088062654</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64">
+        <v>2803.8</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3397.980312433127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65">
+        <v>1032.38</v>
+      </c>
+      <c r="C65" s="3">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B66">
         <v>1449.92</v>
       </c>
-      <c r="C46" s="3">
-        <v>3475.7480274773779</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="C66" s="3">
+        <v>3475.748027477378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>57</v>
       </c>
-      <c r="B47">
-        <v>9355.0400000000009</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B67">
+        <v>9355.040000000001</v>
+      </c>
+      <c r="C67" s="3">
         <v>3382</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B48">
+      <c r="B68">
         <v>866.28</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C68" s="3">
         <v>2954</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>82</v>
       </c>
-      <c r="B49">
+      <c r="B69">
         <v>2425.16</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C69" s="3">
         <v>2964</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70">
+        <v>1708.18</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71">
+        <v>1606.72</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3216.099606652062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>18</v>
       </c>
-      <c r="B50">
-        <v>2482.3000000000002</v>
-      </c>
-      <c r="C50" s="3">
-        <v>3869.4385046126572</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="B72">
+        <v>2482.3</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3869.438504612657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>30</v>
       </c>
-      <c r="B51">
-        <v>2485.7399999999998</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="B73">
+        <v>2485.74</v>
+      </c>
+      <c r="C73" s="3">
         <v>3912</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74">
+        <v>3644.6</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3315.080831915711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75">
+        <v>2447.52</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>17</v>
       </c>
-      <c r="B52">
+      <c r="B76">
         <v>2876.64</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C76" s="3">
         <v>3089</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>29</v>
       </c>
-      <c r="B53">
+      <c r="B77">
         <v>4962.66</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C77" s="3">
         <v>3095</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>45</v>
       </c>
-      <c r="B54">
+      <c r="B78">
         <v>1427.8</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C78" s="3">
         <v>3197</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B55">
+      <c r="B79">
         <v>330.1</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C79" s="3">
         <v>2881</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56">
-        <v>306</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>1168.9</v>
+      </c>
+      <c r="C80" s="3">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81">
+        <v>2463.18</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3067.128516795362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>35</v>
       </c>
-      <c r="B57">
+      <c r="B82">
         <v>1820.28</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C82" s="3">
         <v>4637</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83">
+        <v>10406.74</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84">
+        <v>18313.87</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2856.44520846768</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85">
+        <v>31628.56</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>34</v>
       </c>
-      <c r="B58">
-        <v>2181.6799999999998</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="B86">
+        <v>2181.68</v>
+      </c>
+      <c r="C86" s="3">
         <v>3508</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>19</v>
       </c>
-      <c r="B59">
+      <c r="B87">
         <v>80972.92</v>
       </c>
-      <c r="C59" s="3">
-        <v>3561.1411494114332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="C87" s="3">
+        <v>3561.141149411433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>48</v>
       </c>
-      <c r="B60">
+      <c r="B88">
         <v>54248.43</v>
       </c>
-      <c r="C60" s="3">
-        <v>3533.8657439487188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="C88" s="3">
+        <v>3533.865743948719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>49</v>
       </c>
-      <c r="B61">
-        <v>41768.259999999987</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B89">
+        <v>41768.25999999999</v>
+      </c>
+      <c r="C89" s="3">
         <v>3673.115142455059</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
+      <c r="B90">
         <v>33785.08</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C90" s="3">
         <v>4086.258053555001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>83</v>
       </c>
-      <c r="B63">
-        <v>46949.18</v>
-      </c>
-      <c r="C63" s="3">
-        <v>4157.0960600376829</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="B91">
+        <v>48019.36</v>
+      </c>
+      <c r="C91" s="3">
+        <v>4153.15966268605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>51777.84</v>
+      </c>
+      <c r="C92" s="3">
+        <v>4124.46344691088</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>27729.38</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3748.926031523243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>20</v>
       </c>
-      <c r="B64">
+      <c r="B94">
         <v>61.04</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C94" s="3">
         <v>4156</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>36</v>
       </c>
-      <c r="B65">
-        <v>826.32</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="B95">
+        <v>826.3200000000001</v>
+      </c>
+      <c r="C95" s="3">
         <v>4248</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>60</v>
       </c>
-      <c r="B66">
+      <c r="B96">
         <v>22390.22</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C96" s="3">
         <v>3738</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B97">
         <v>3636.5</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C97" s="3">
         <v>3542</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98">
+        <v>6497.44</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B99">
         <v>13608.23</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C99" s="3">
         <v>3913</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>14</v>
       </c>
-      <c r="B69">
+      <c r="B100">
         <v>27057.91</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C100" s="3">
         <v>4877</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>15</v>
       </c>
-      <c r="B70">
+      <c r="B101">
         <v>2917.8</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C101" s="3">
         <v>5177</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>27</v>
       </c>
-      <c r="B71">
+      <c r="B102">
         <v>32324.05</v>
       </c>
-      <c r="C71" s="3">
-        <v>5021.1298822393856</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+      <c r="C102" s="3">
+        <v>5021.129882239386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>43</v>
       </c>
-      <c r="B72">
+      <c r="B103">
         <v>12340.99</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C103" s="3">
         <v>4673</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>67</v>
       </c>
-      <c r="B73">
+      <c r="B104">
         <v>1884.42</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C104" s="3">
         <v>3274</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B105">
         <v>1605.86</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C105" s="3">
         <v>4890</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106">
+        <v>10656.33</v>
+      </c>
+      <c r="C106" s="3">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>23</v>
       </c>
-      <c r="B75">
+      <c r="B107">
         <v>15211.08</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C107" s="3">
         <v>2620</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>40</v>
       </c>
-      <c r="B76">
+      <c r="B108">
         <v>27216.53</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C108" s="3">
         <v>3671</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>53</v>
       </c>
-      <c r="B77">
+      <c r="B109">
         <v>12370.01</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C109" s="3">
         <v>4233</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/化验月报汇总.xlsx
+++ b/化验月报汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="339">
   <si>
     <t>序号</t>
   </si>
@@ -348,6 +348,12 @@
     <t>山西乡宁焦煤集团富康源煤业有限公司2025（10-1）</t>
   </si>
   <si>
+    <t>大同煤矿集团北辛窑煤业有限公司2025（11-1火车）</t>
+  </si>
+  <si>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025（11-1）</t>
+  </si>
+  <si>
     <t>晋能控股煤业集团圣厚源煤业有限公司2025（10-1）</t>
   </si>
   <si>
@@ -807,6 +813,12 @@
     <t>2025-11-大同煤矿集团北辛窑煤业有限公司2025（10-1火车）</t>
   </si>
   <si>
+    <t>2025-11-大同煤矿集团北辛窑煤业有限公司2025（11-1火车）</t>
+  </si>
+  <si>
+    <t>2025-11-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025（11-1）</t>
+  </si>
+  <si>
     <t>2025-11-晋能控股煤业集团圣厚源煤业有限公司2025（10-1）</t>
   </si>
   <si>
@@ -946,6 +958,9 @@
   </si>
   <si>
     <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+  </si>
+  <si>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
   </si>
   <si>
     <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
@@ -1381,7 +1396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1433,10 +1448,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E2">
         <v>3442.2</v>
@@ -1471,10 +1486,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E3">
         <v>5756.2</v>
@@ -1509,10 +1524,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E4">
         <v>27057.91</v>
@@ -1547,10 +1562,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E5">
         <v>2917.8</v>
@@ -1585,10 +1600,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E6">
         <v>2502.76</v>
@@ -1623,10 +1638,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E7">
         <v>2876.64</v>
@@ -1661,10 +1676,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E8">
         <v>523.46</v>
@@ -1699,10 +1714,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E9">
         <v>77163.16</v>
@@ -1737,10 +1752,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E10">
         <v>61.04</v>
@@ -1775,10 +1790,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E11">
         <v>986.26</v>
@@ -1813,10 +1828,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E12">
         <v>3824.5</v>
@@ -1851,10 +1866,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E13">
         <v>15211.08</v>
@@ -1889,10 +1904,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E14">
         <v>12060.04</v>
@@ -1927,10 +1942,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E15">
         <v>28798.32</v>
@@ -1965,10 +1980,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E16">
         <v>283.7</v>
@@ -2003,10 +2018,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E17">
         <v>1500.5</v>
@@ -2041,10 +2056,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E18">
         <v>6806.02</v>
@@ -2079,10 +2094,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E19">
         <v>32295.49</v>
@@ -2117,10 +2132,10 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E20">
         <v>2449.42</v>
@@ -2155,10 +2170,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E21">
         <v>4962.66</v>
@@ -2193,10 +2208,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E22">
         <v>1958.84</v>
@@ -2231,10 +2246,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E23">
         <v>2485.74</v>
@@ -2269,10 +2284,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E24">
         <v>9480.379999999999</v>
@@ -2307,10 +2322,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E25">
         <v>2002.74</v>
@@ -2345,10 +2360,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E26">
         <v>2144.02</v>
@@ -2383,10 +2398,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E27">
         <v>2181.68</v>
@@ -2421,10 +2436,10 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E28">
         <v>3809.76</v>
@@ -2459,10 +2474,10 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E29">
         <v>1820.28</v>
@@ -2497,10 +2512,10 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E30">
         <v>826.3200000000001</v>
@@ -2535,10 +2550,10 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E31">
         <v>18966.78</v>
@@ -2573,10 +2588,10 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E32">
         <v>9279.440000000001</v>
@@ -2611,10 +2626,10 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E33">
         <v>10732.63</v>
@@ -2649,10 +2664,10 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E34">
         <v>1904.84</v>
@@ -2687,10 +2702,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E35">
         <v>14773.68</v>
@@ -2725,10 +2740,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E36">
         <v>27216.53</v>
@@ -2763,10 +2778,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E37">
         <v>3522.5</v>
@@ -2801,10 +2816,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E38">
         <v>17733.2</v>
@@ -2839,10 +2854,10 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E39">
         <v>28.56</v>
@@ -2877,10 +2892,10 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E40">
         <v>12340.99</v>
@@ -2915,10 +2930,10 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E41">
         <v>1186.14</v>
@@ -2953,10 +2968,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E42">
         <v>4235.8</v>
@@ -2991,10 +3006,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E43">
         <v>1427.8</v>
@@ -3029,10 +3044,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E44">
         <v>926.02</v>
@@ -3067,10 +3082,10 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E45">
         <v>9522</v>
@@ -3105,10 +3120,10 @@
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E46">
         <v>20.26</v>
@@ -3143,10 +3158,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E47">
         <v>1188.36</v>
@@ -3181,10 +3196,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E48">
         <v>52208.93</v>
@@ -3219,10 +3234,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E49">
         <v>11761.74</v>
@@ -3257,10 +3272,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E50">
         <v>3524.66</v>
@@ -3295,10 +3310,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E51">
         <v>10867.26</v>
@@ -3333,10 +3348,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E52">
         <v>10048.06</v>
@@ -3371,10 +3386,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E53">
         <v>12370.01</v>
@@ -3409,10 +3424,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E54">
         <v>36340.32</v>
@@ -3447,10 +3462,10 @@
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E55">
         <v>1308.68</v>
@@ -3485,10 +3500,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E56">
         <v>9900.34</v>
@@ -3523,10 +3538,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E57">
         <v>2352.94</v>
@@ -3561,10 +3576,10 @@
         <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E58">
         <v>523.9</v>
@@ -3599,10 +3614,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E59">
         <v>9355.040000000001</v>
@@ -3637,10 +3652,10 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E60">
         <v>21068.12</v>
@@ -3675,10 +3690,10 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E61">
         <v>7531.98</v>
@@ -3713,10 +3728,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E62">
         <v>14025.5</v>
@@ -3751,10 +3766,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E63">
         <v>3342.88</v>
@@ -3789,10 +3804,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E64">
         <v>22390.22</v>
@@ -3827,10 +3842,10 @@
         <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E65">
         <v>24035.26</v>
@@ -3865,10 +3880,10 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E66">
         <v>35733.84</v>
@@ -3903,10 +3918,10 @@
         <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E67">
         <v>2023.1</v>
@@ -3941,10 +3956,10 @@
         <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E68">
         <v>4883.32</v>
@@ -3979,10 +3994,10 @@
         <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E69">
         <v>8938.4</v>
@@ -4017,10 +4032,10 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E70">
         <v>13461.28</v>
@@ -4055,10 +4070,10 @@
         <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E71">
         <v>55.72</v>
@@ -4093,10 +4108,10 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E72">
         <v>7359.58</v>
@@ -4131,10 +4146,10 @@
         <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E73">
         <v>16323.1</v>
@@ -4169,10 +4184,10 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E74">
         <v>3636.5</v>
@@ -4207,10 +4222,10 @@
         <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E75">
         <v>1884.42</v>
@@ -4245,10 +4260,10 @@
         <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E76">
         <v>36946.61</v>
@@ -4283,10 +4298,10 @@
         <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D77" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E77">
         <v>13608.23</v>
@@ -4321,10 +4336,10 @@
         <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E78">
         <v>1581.06</v>
@@ -4359,10 +4374,10 @@
         <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D79" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E79">
         <v>3091.88</v>
@@ -4397,10 +4412,10 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E80">
         <v>866.28</v>
@@ -4435,10 +4450,10 @@
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E81">
         <v>20323.8</v>
@@ -4473,10 +4488,10 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E82">
         <v>7529.4</v>
@@ -4511,10 +4526,10 @@
         <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D83" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E83">
         <v>3386.52</v>
@@ -4549,10 +4564,10 @@
         <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D84" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E84">
         <v>7366.666</v>
@@ -4587,10 +4602,10 @@
         <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E85">
         <v>1605.86</v>
@@ -4625,10 +4640,10 @@
         <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E86">
         <v>15780.8</v>
@@ -4663,10 +4678,10 @@
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E87">
         <v>21117.8</v>
@@ -4701,10 +4716,10 @@
         <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E88">
         <v>9975.32</v>
@@ -4739,10 +4754,10 @@
         <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E89">
         <v>6973.04</v>
@@ -4777,10 +4792,10 @@
         <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E90">
         <v>9305.559999999999</v>
@@ -4815,10 +4830,10 @@
         <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E91">
         <v>1590.94</v>
@@ -4853,10 +4868,10 @@
         <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E92">
         <v>3481.32</v>
@@ -4891,10 +4906,10 @@
         <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D93" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E93">
         <v>839.74</v>
@@ -4929,10 +4944,10 @@
         <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E94">
         <v>4804.54</v>
@@ -4967,10 +4982,10 @@
         <v>81</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D95" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E95">
         <v>330.1</v>
@@ -5005,10 +5020,10 @@
         <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E96">
         <v>2425.16</v>
@@ -5043,10 +5058,10 @@
         <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E97">
         <v>2039.5</v>
@@ -5081,10 +5096,10 @@
         <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D98" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E98">
         <v>40901.14</v>
@@ -5119,10 +5134,10 @@
         <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E99">
         <v>11136.18</v>
@@ -5157,10 +5172,10 @@
         <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D100" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E100">
         <v>9890.559999999999</v>
@@ -5195,10 +5210,10 @@
         <v>85</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E101">
         <v>3599.92</v>
@@ -5233,10 +5248,10 @@
         <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D102" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E102">
         <v>4415.76</v>
@@ -5271,10 +5286,10 @@
         <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D103" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E103">
         <v>35022.82</v>
@@ -5309,10 +5324,10 @@
         <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D104" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E104">
         <v>44189.06</v>
@@ -5347,10 +5362,10 @@
         <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D105" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E105">
         <v>20420.15</v>
@@ -5385,10 +5400,10 @@
         <v>80</v>
       </c>
       <c r="C106" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D106" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E106">
         <v>383.3</v>
@@ -5423,10 +5438,10 @@
         <v>87</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D107" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E107">
         <v>2580.46</v>
@@ -5461,10 +5476,10 @@
         <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D108" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E108">
         <v>1168.9</v>
@@ -5499,10 +5514,10 @@
         <v>89</v>
       </c>
       <c r="C109" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D109" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E109">
         <v>1708.18</v>
@@ -5537,10 +5552,10 @@
         <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D110" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E110">
         <v>7118.22</v>
@@ -5575,10 +5590,10 @@
         <v>90</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D111" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E111">
         <v>19512.04</v>
@@ -5613,10 +5628,10 @@
         <v>91</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D112" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E112">
         <v>19961.7</v>
@@ -5651,10 +5666,10 @@
         <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D113" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E113">
         <v>7578.94</v>
@@ -5689,10 +5704,10 @@
         <v>92</v>
       </c>
       <c r="C114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D114" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E114">
         <v>1165.62</v>
@@ -5727,10 +5742,10 @@
         <v>75</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D115" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E115">
         <v>6876.38</v>
@@ -5765,10 +5780,10 @@
         <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D116" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E116">
         <v>3472.02</v>
@@ -5803,10 +5818,10 @@
         <v>86</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D117" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E117">
         <v>16864.3</v>
@@ -5841,10 +5856,10 @@
         <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E118">
         <v>1912.62</v>
@@ -5879,10 +5894,10 @@
         <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D119" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E119">
         <v>2309.3</v>
@@ -5917,10 +5932,10 @@
         <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D120" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E120">
         <v>1253.24</v>
@@ -5955,10 +5970,10 @@
         <v>90</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D121" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E121">
         <v>32265.8</v>
@@ -5993,10 +6008,10 @@
         <v>97</v>
       </c>
       <c r="C122" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D122" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E122">
         <v>6814.36</v>
@@ -6031,10 +6046,10 @@
         <v>98</v>
       </c>
       <c r="C123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D123" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E123">
         <v>14774.2</v>
@@ -6069,10 +6084,10 @@
         <v>99</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D124" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E124">
         <v>39774.23</v>
@@ -6107,10 +6122,10 @@
         <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D125" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E125">
         <v>3675.34</v>
@@ -6145,10 +6160,10 @@
         <v>92</v>
       </c>
       <c r="C126" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D126" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E126">
         <v>3976.24</v>
@@ -6183,10 +6198,10 @@
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D127" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E127">
         <v>142.1</v>
@@ -6221,10 +6236,10 @@
         <v>102</v>
       </c>
       <c r="C128" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D128" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E128">
         <v>3409.48</v>
@@ -6259,10 +6274,10 @@
         <v>75</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D129" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E129">
         <v>4793.96</v>
@@ -6297,10 +6312,10 @@
         <v>93</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D130" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E130">
         <v>17268.6</v>
@@ -6335,10 +6350,10 @@
         <v>86</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D131" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E131">
         <v>2743.7</v>
@@ -6373,10 +6388,10 @@
         <v>103</v>
       </c>
       <c r="C132" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D132" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E132">
         <v>3634.76</v>
@@ -6411,10 +6426,10 @@
         <v>104</v>
       </c>
       <c r="C133" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E133">
         <v>553.74</v>
@@ -6449,10 +6464,10 @@
         <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D134" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E134">
         <v>1370.36</v>
@@ -6487,10 +6502,10 @@
         <v>106</v>
       </c>
       <c r="C135" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D135" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E135">
         <v>3115.8</v>
@@ -6525,10 +6540,10 @@
         <v>95</v>
       </c>
       <c r="C136" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D136" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E136">
         <v>153.88</v>
@@ -6563,10 +6578,10 @@
         <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D137" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E137">
         <v>2774.7</v>
@@ -6601,10 +6616,10 @@
         <v>96</v>
       </c>
       <c r="C138" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D138" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E138">
         <v>353.48</v>
@@ -6639,10 +6654,10 @@
         <v>108</v>
       </c>
       <c r="C139" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D139" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E139">
         <v>31628.56</v>
@@ -6677,10 +6692,10 @@
         <v>97</v>
       </c>
       <c r="C140" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D140" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E140">
         <v>13495.52</v>
@@ -6715,10 +6730,10 @@
         <v>98</v>
       </c>
       <c r="C141" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D141" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E141">
         <v>3539.67</v>
@@ -6753,10 +6768,10 @@
         <v>109</v>
       </c>
       <c r="C142" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D142" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E142">
         <v>47616.57</v>
@@ -6791,10 +6806,10 @@
         <v>92</v>
       </c>
       <c r="C143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D143" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E143">
         <v>9939.540000000001</v>
@@ -6829,34 +6844,34 @@
         <v>102</v>
       </c>
       <c r="C144" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D144" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E144">
-        <v>26465.8</v>
+        <v>31215.66</v>
       </c>
       <c r="F144" s="2">
         <v>45962</v>
       </c>
       <c r="G144">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="H144">
-        <v>44.03</v>
+        <v>44.6</v>
       </c>
       <c r="I144">
-        <v>42.6</v>
+        <v>42.54</v>
       </c>
       <c r="J144">
-        <v>31.78</v>
+        <v>31.49</v>
       </c>
       <c r="K144">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="L144">
-        <v>3531</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6867,34 +6882,34 @@
         <v>110</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D145" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E145">
-        <v>6497.44</v>
+        <v>9659.1</v>
       </c>
       <c r="F145" s="2">
         <v>45962</v>
       </c>
       <c r="G145">
-        <v>10.7</v>
+        <v>6.4</v>
       </c>
       <c r="H145">
-        <v>36.07</v>
+        <v>52.13</v>
       </c>
       <c r="I145">
-        <v>41.44</v>
+        <v>43.37</v>
       </c>
       <c r="J145">
-        <v>37.03</v>
+        <v>26.94</v>
       </c>
       <c r="K145">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="L145">
-        <v>3998</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6902,37 +6917,37 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C146" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D146" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E146">
-        <v>1635.34</v>
+        <v>3652.22</v>
       </c>
       <c r="F146" s="2">
         <v>45962</v>
       </c>
       <c r="G146">
-        <v>13.6</v>
+        <v>8.5</v>
       </c>
       <c r="H146">
-        <v>38.03</v>
+        <v>49.47</v>
       </c>
       <c r="I146">
-        <v>35.14</v>
+        <v>43.23</v>
       </c>
       <c r="J146">
-        <v>39.79</v>
+        <v>28.41</v>
       </c>
       <c r="K146">
-        <v>1.67</v>
+        <v>0.86</v>
       </c>
       <c r="L146">
-        <v>3923</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6940,37 +6955,37 @@
         <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C147" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D147" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E147">
-        <v>2436.32</v>
+        <v>6497.44</v>
       </c>
       <c r="F147" s="2">
         <v>45962</v>
       </c>
       <c r="G147">
-        <v>14</v>
+        <v>10.7</v>
       </c>
       <c r="H147">
-        <v>35.25</v>
+        <v>36.07</v>
       </c>
       <c r="I147">
-        <v>35.75</v>
+        <v>41.44</v>
       </c>
       <c r="J147">
-        <v>41.16</v>
+        <v>37.03</v>
       </c>
       <c r="K147">
-        <v>1.88</v>
+        <v>0.67</v>
       </c>
       <c r="L147">
-        <v>4144</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6978,37 +6993,37 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D148" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E148">
-        <v>450</v>
+        <v>1635.34</v>
       </c>
       <c r="F148" s="2">
         <v>45962</v>
       </c>
       <c r="G148">
-        <v>5.7</v>
+        <v>13.6</v>
       </c>
       <c r="H148">
-        <v>43.41</v>
+        <v>38.03</v>
       </c>
       <c r="I148">
-        <v>39.6</v>
+        <v>35.14</v>
       </c>
       <c r="J148">
-        <v>33.76</v>
+        <v>39.79</v>
       </c>
       <c r="K148">
-        <v>1.26</v>
+        <v>1.67</v>
       </c>
       <c r="L148">
-        <v>3857</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7016,37 +7031,37 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C149" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D149" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E149">
-        <v>2451.6</v>
+        <v>2436.32</v>
       </c>
       <c r="F149" s="2">
         <v>45962</v>
       </c>
       <c r="G149">
-        <v>6.8</v>
+        <v>14</v>
       </c>
       <c r="H149">
-        <v>46.86</v>
+        <v>35.25</v>
       </c>
       <c r="I149">
-        <v>40.71</v>
+        <v>35.75</v>
       </c>
       <c r="J149">
-        <v>31.23</v>
+        <v>41.16</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="L149">
-        <v>3497</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7054,37 +7069,37 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C150" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D150" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E150">
-        <v>528.8</v>
+        <v>450</v>
       </c>
       <c r="F150" s="2">
         <v>45962</v>
       </c>
       <c r="G150">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H150">
-        <v>46.93</v>
+        <v>43.41</v>
       </c>
       <c r="I150">
-        <v>32.31</v>
+        <v>39.6</v>
       </c>
       <c r="J150">
-        <v>35.68</v>
+        <v>33.76</v>
       </c>
       <c r="K150">
-        <v>3.45</v>
+        <v>1.26</v>
       </c>
       <c r="L150">
-        <v>3510</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7092,37 +7107,37 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D151" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E151">
-        <v>2447.52</v>
+        <v>2610.7</v>
       </c>
       <c r="F151" s="2">
         <v>45962</v>
       </c>
       <c r="G151">
-        <v>4.7</v>
+        <v>6.7</v>
       </c>
       <c r="H151">
-        <v>51.94</v>
+        <v>46.7</v>
       </c>
       <c r="I151">
-        <v>34.25</v>
+        <v>40.62</v>
       </c>
       <c r="J151">
-        <v>31.38</v>
+        <v>31.37</v>
       </c>
       <c r="K151">
-        <v>4.4</v>
+        <v>1.37</v>
       </c>
       <c r="L151">
-        <v>3080</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7130,37 +7145,37 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C152" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D152" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E152">
-        <v>29.1</v>
+        <v>528.8</v>
       </c>
       <c r="F152" s="2">
         <v>45962</v>
       </c>
       <c r="G152">
-        <v>9.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="H152">
-        <v>55.66</v>
+        <v>46.93</v>
       </c>
       <c r="I152">
-        <v>28.18</v>
+        <v>32.31</v>
       </c>
       <c r="J152">
-        <v>31.36</v>
+        <v>35.68</v>
       </c>
       <c r="K152">
-        <v>0.68</v>
+        <v>3.45</v>
       </c>
       <c r="L152">
-        <v>2824</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7168,37 +7183,37 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C153" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D153" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E153">
-        <v>1032.38</v>
+        <v>2941.16</v>
       </c>
       <c r="F153" s="2">
         <v>45962</v>
       </c>
       <c r="G153">
-        <v>9.699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="H153">
-        <v>52.58</v>
+        <v>51.21</v>
       </c>
       <c r="I153">
-        <v>26.75</v>
+        <v>33.93</v>
       </c>
       <c r="J153">
-        <v>34.39</v>
+        <v>32.04</v>
       </c>
       <c r="K153">
-        <v>0.65</v>
+        <v>4.44</v>
       </c>
       <c r="L153">
-        <v>3102</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7206,37 +7221,37 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D154" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E154">
-        <v>7419.5</v>
+        <v>29.1</v>
       </c>
       <c r="F154" s="2">
         <v>45962</v>
       </c>
       <c r="G154">
-        <v>10.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H154">
-        <v>38.03</v>
+        <v>55.66</v>
       </c>
       <c r="I154">
-        <v>42.91</v>
+        <v>28.18</v>
       </c>
       <c r="J154">
-        <v>34.58</v>
+        <v>31.36</v>
       </c>
       <c r="K154">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="L154">
-        <v>3842</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7244,37 +7259,37 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D155" t="s">
         <v>311</v>
       </c>
       <c r="E155">
-        <v>10406.74</v>
+        <v>1325.8</v>
       </c>
       <c r="F155" s="2">
         <v>45962</v>
       </c>
       <c r="G155">
-        <v>7.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H155">
-        <v>47.65</v>
+        <v>50.86</v>
       </c>
       <c r="I155">
-        <v>43.95</v>
+        <v>26.34</v>
       </c>
       <c r="J155">
-        <v>29.04</v>
+        <v>35.88</v>
       </c>
       <c r="K155">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="L155">
-        <v>3278</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7282,37 +7297,37 @@
         <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C156" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D156" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E156">
-        <v>35994.37</v>
+        <v>12282.32</v>
       </c>
       <c r="F156" s="2">
         <v>45962</v>
       </c>
       <c r="G156">
-        <v>6.3</v>
+        <v>9.6</v>
       </c>
       <c r="H156">
-        <v>41.97</v>
+        <v>37.7</v>
       </c>
       <c r="I156">
-        <v>35</v>
+        <v>42.3</v>
       </c>
       <c r="J156">
-        <v>37.44</v>
+        <v>35.33</v>
       </c>
       <c r="K156">
-        <v>1.8</v>
+        <v>0.76</v>
       </c>
       <c r="L156">
-        <v>3922</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7323,34 +7338,34 @@
         <v>117</v>
       </c>
       <c r="C157" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D157" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E157">
-        <v>3680.82</v>
+        <v>10406.74</v>
       </c>
       <c r="F157" s="2">
         <v>45962</v>
       </c>
       <c r="G157">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="H157">
-        <v>53.9</v>
+        <v>47.65</v>
       </c>
       <c r="I157">
-        <v>32.68</v>
+        <v>43.95</v>
       </c>
       <c r="J157">
-        <v>30.84</v>
+        <v>29.04</v>
       </c>
       <c r="K157">
-        <v>1.86</v>
+        <v>0.82</v>
       </c>
       <c r="L157">
-        <v>2968</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7358,37 +7373,37 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C158" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D158" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="E158">
-        <v>3680.82</v>
+        <v>49461.72</v>
       </c>
       <c r="F158" s="2">
         <v>45962</v>
       </c>
       <c r="G158">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="H158">
-        <v>53.9</v>
+        <v>41.91</v>
       </c>
       <c r="I158">
-        <v>32.68</v>
+        <v>35.45</v>
       </c>
       <c r="J158">
-        <v>30.84</v>
+        <v>37.23</v>
       </c>
       <c r="K158">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="L158">
-        <v>2968</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7396,37 +7411,37 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C159" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D159" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="E159">
-        <v>3393.76</v>
+        <v>3680.82</v>
       </c>
       <c r="F159" s="2">
         <v>45962</v>
       </c>
       <c r="G159">
-        <v>2.8</v>
+        <v>7.6</v>
       </c>
       <c r="H159">
-        <v>31.94</v>
+        <v>53.9</v>
       </c>
       <c r="I159">
-        <v>31.64</v>
+        <v>32.68</v>
       </c>
       <c r="J159">
-        <v>46.12</v>
+        <v>30.84</v>
       </c>
       <c r="K159">
-        <v>0.53</v>
+        <v>1.86</v>
       </c>
       <c r="L159">
-        <v>4838</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7434,37 +7449,37 @@
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C160" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D160" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E160">
-        <v>4088.82</v>
+        <v>3680.82</v>
       </c>
       <c r="F160" s="2">
         <v>45962</v>
       </c>
       <c r="G160">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="H160">
-        <v>35.25</v>
+        <v>53.9</v>
       </c>
       <c r="I160">
-        <v>31.9</v>
+        <v>32.68</v>
       </c>
       <c r="J160">
-        <v>43.55</v>
+        <v>30.84</v>
       </c>
       <c r="K160">
-        <v>0.7</v>
+        <v>1.86</v>
       </c>
       <c r="L160">
-        <v>4547</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7472,37 +7487,113 @@
         <v>18</v>
       </c>
       <c r="B161" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C161" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D161" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E161">
-        <v>10656.33</v>
+        <v>3393.76</v>
       </c>
       <c r="F161" s="2">
         <v>45962</v>
       </c>
       <c r="G161">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H161">
-        <v>27.61</v>
+        <v>31.94</v>
       </c>
       <c r="I161">
-        <v>13.48</v>
+        <v>31.64</v>
       </c>
       <c r="J161">
-        <v>62.33</v>
+        <v>46.12</v>
       </c>
       <c r="K161">
-        <v>3.73</v>
+        <v>0.53</v>
       </c>
       <c r="L161">
-        <v>5344</v>
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162" t="s">
+        <v>282</v>
+      </c>
+      <c r="D162" t="s">
+        <v>292</v>
+      </c>
+      <c r="E162">
+        <v>4088.82</v>
+      </c>
+      <c r="F162" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G162">
+        <v>5.2</v>
+      </c>
+      <c r="H162">
+        <v>35.25</v>
+      </c>
+      <c r="I162">
+        <v>31.9</v>
+      </c>
+      <c r="J162">
+        <v>43.55</v>
+      </c>
+      <c r="K162">
+        <v>0.7</v>
+      </c>
+      <c r="L162">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>121</v>
+      </c>
+      <c r="C163" t="s">
+        <v>283</v>
+      </c>
+      <c r="D163" t="s">
+        <v>318</v>
+      </c>
+      <c r="E163">
+        <v>16750.37</v>
+      </c>
+      <c r="F163" s="2">
+        <v>45962</v>
+      </c>
+      <c r="G163">
+        <v>5.8</v>
+      </c>
+      <c r="H163">
+        <v>27.86</v>
+      </c>
+      <c r="I163">
+        <v>13.39</v>
+      </c>
+      <c r="J163">
+        <v>62.2</v>
+      </c>
+      <c r="K163">
+        <v>3.82</v>
+      </c>
+      <c r="L163">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
@@ -7523,27 +7614,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B2">
         <v>142323.01</v>
@@ -7563,7 +7654,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B3">
         <v>198739.81</v>
@@ -7583,7 +7674,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B4">
         <v>152912.29</v>
@@ -7603,7 +7694,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B5">
         <v>128139.92</v>
@@ -7623,7 +7714,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B6">
         <v>118334.52</v>
@@ -7643,7 +7734,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B7">
         <v>96306.306</v>
@@ -7663,7 +7754,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B8">
         <v>144191.62</v>
@@ -7683,7 +7774,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B9">
         <v>165225.15</v>
@@ -7703,7 +7794,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B10">
         <v>134110.13</v>
@@ -7723,7 +7814,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B11">
         <v>146392.32</v>
@@ -7743,42 +7834,42 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B12">
-        <v>123295.46</v>
+        <v>166727.01</v>
       </c>
       <c r="C12" s="3">
-        <v>7.282313006496752</v>
+        <v>7.250989254830396</v>
       </c>
       <c r="D12" s="3">
-        <v>1.522472150231647</v>
+        <v>1.529446721320079</v>
       </c>
       <c r="E12" s="3">
-        <v>3864.891717018615</v>
+        <v>3838.528874655642</v>
       </c>
       <c r="F12" s="3">
-        <v>36.0582844996888</v>
+        <v>36.15511639595768</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B13">
-        <v>1549970.536</v>
+        <v>1593402.086</v>
       </c>
       <c r="C13" s="3">
-        <v>6.565473860981833</v>
+        <v>6.581735242814285</v>
       </c>
       <c r="D13" s="3">
-        <v>1.412770525632753</v>
+        <v>1.416490466148417</v>
       </c>
       <c r="E13" s="3">
-        <v>3765.473611241602</v>
+        <v>3765.424963476545</v>
       </c>
       <c r="F13" s="3">
-        <v>37.11685575479869</v>
+        <v>37.09813424180493</v>
       </c>
     </row>
   </sheetData>
@@ -7788,7 +7879,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7802,10 +7893,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7824,1175 +7915,1197 @@
         <v>102</v>
       </c>
       <c r="B3">
-        <v>29875.28</v>
+        <v>34625.14</v>
       </c>
       <c r="C3" s="3">
-        <v>3513.767308624388</v>
+        <v>3474.660824476089</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B4">
-        <v>12060.04</v>
+        <v>9659.1</v>
       </c>
       <c r="C4" s="3">
-        <v>2303</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>28798.32</v>
+        <v>12060.04</v>
       </c>
       <c r="C5" s="3">
-        <v>2056</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>3522.5</v>
+        <v>28798.32</v>
       </c>
       <c r="C6" s="3">
-        <v>3563</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>60375.58</v>
+        <v>3522.5</v>
       </c>
       <c r="C7" s="3">
-        <v>3401.30288172801</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>92877.00999999999</v>
+        <v>60375.58</v>
       </c>
       <c r="C8" s="3">
-        <v>3344.107510028585</v>
+        <v>3401.30288172801</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>21117.8</v>
+        <v>92877.00999999999</v>
       </c>
       <c r="C9" s="3">
-        <v>3425</v>
+        <v>3344.107510028585</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10">
-        <v>56668.48</v>
+        <v>21117.8</v>
       </c>
       <c r="C10" s="3">
-        <v>3378.883012214197</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>20740.62</v>
+        <v>56668.48</v>
       </c>
       <c r="C11" s="3">
-        <v>2924.211038049971</v>
+        <v>3378.883012214197</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B12">
-        <v>3725.9</v>
+        <v>20740.62</v>
       </c>
       <c r="C12" s="3">
-        <v>4356.116723476208</v>
+        <v>2924.211038049971</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>7256.7</v>
+        <v>3725.9</v>
       </c>
       <c r="C13" s="3">
-        <v>4365.905466672179</v>
+        <v>4356.116723476208</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>6806.02</v>
+        <v>7256.7</v>
       </c>
       <c r="C14" s="3">
-        <v>4365</v>
+        <v>4365.905466672179</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>17733.2</v>
+        <v>6806.02</v>
       </c>
       <c r="C15" s="3">
-        <v>3418</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B16">
-        <v>6973.04</v>
+        <v>3652.22</v>
       </c>
       <c r="C16" s="3">
-        <v>3433</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B17">
-        <v>53494.62</v>
+        <v>17733.2</v>
       </c>
       <c r="C17" s="3">
-        <v>3540.73676156593</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B18">
-        <v>40028.15</v>
+        <v>6973.04</v>
       </c>
       <c r="C18" s="3">
-        <v>3613.135846897746</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B19">
-        <v>3680.82</v>
+        <v>53494.62</v>
       </c>
       <c r="C19" s="3">
-        <v>2968</v>
+        <v>3540.73676156593</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B20">
-        <v>12960.26</v>
+        <v>40028.15</v>
       </c>
       <c r="C20" s="3">
-        <v>2928.620450515653</v>
+        <v>3613.135846897746</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B21">
-        <v>10732.63</v>
+        <v>3680.82</v>
       </c>
       <c r="C21" s="3">
-        <v>2958</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>3524.66</v>
+        <v>12960.26</v>
       </c>
       <c r="C22" s="3">
-        <v>2283</v>
+        <v>2928.620450515653</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>3675.34</v>
+        <v>10732.63</v>
       </c>
       <c r="C23" s="3">
-        <v>4051</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24">
-        <v>10867.26</v>
+        <v>3524.66</v>
       </c>
       <c r="C24" s="3">
-        <v>4738</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B25">
-        <v>5729.34</v>
+        <v>3675.34</v>
       </c>
       <c r="C25" s="3">
-        <v>4585.265217285063</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>14773.68</v>
+        <v>10867.26</v>
       </c>
       <c r="C26" s="3">
-        <v>4600</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>17580.04</v>
+        <v>5729.34</v>
       </c>
       <c r="C27" s="3">
-        <v>4755.283468069469</v>
+        <v>4585.265217285063</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>14081.22</v>
+        <v>14773.68</v>
       </c>
       <c r="C28" s="3">
-        <v>4813.38270121481</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29">
-        <v>10702.46</v>
+        <v>17580.04</v>
       </c>
       <c r="C29" s="3">
-        <v>4683.430915882892</v>
+        <v>4755.283468069469</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B30">
-        <v>19709.62</v>
+        <v>14081.22</v>
       </c>
       <c r="C30" s="3">
-        <v>4657.53266273018</v>
+        <v>4813.38270121481</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B31">
-        <v>7366.666</v>
+        <v>10702.46</v>
       </c>
       <c r="C31" s="3">
-        <v>3930</v>
+        <v>4683.430915882892</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B32">
-        <v>17469.5</v>
+        <v>19709.62</v>
       </c>
       <c r="C32" s="3">
-        <v>4588.206060848908</v>
+        <v>4657.53266273018</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>3599.92</v>
+        <v>7366.666</v>
       </c>
       <c r="C33" s="3">
-        <v>4206</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B34">
-        <v>18475.16</v>
+        <v>17469.5</v>
       </c>
       <c r="C34" s="3">
-        <v>4666.705313512845</v>
+        <v>4588.206060848908</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B35">
-        <v>4088.82</v>
+        <v>3599.92</v>
       </c>
       <c r="C35" s="3">
-        <v>4547</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B36">
-        <v>47616.57</v>
+        <v>18475.16</v>
       </c>
       <c r="C36" s="3">
-        <v>3948</v>
+        <v>4666.705313512845</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B37">
-        <v>35994.37</v>
+        <v>4088.82</v>
       </c>
       <c r="C37" s="3">
-        <v>3922</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B38">
-        <v>19953.04</v>
+        <v>47616.57</v>
       </c>
       <c r="C38" s="3">
-        <v>3957.190051240313</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B39">
-        <v>18665.58</v>
+        <v>49461.72</v>
       </c>
       <c r="C39" s="3">
-        <v>3954.746185224355</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>19961.7</v>
+        <v>19953.04</v>
       </c>
       <c r="C40" s="3">
-        <v>3974</v>
+        <v>3957.190051240313</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B41">
-        <v>39774.23</v>
+        <v>18665.58</v>
       </c>
       <c r="C41" s="3">
-        <v>3940</v>
+        <v>3954.746185224355</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B42">
-        <v>2002.74</v>
+        <v>19961.7</v>
       </c>
       <c r="C42" s="3">
-        <v>4004</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B43">
-        <v>2164.28</v>
+        <v>39774.23</v>
       </c>
       <c r="C43" s="3">
-        <v>4001.07488864657</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B44">
-        <v>1188.36</v>
+        <v>2002.74</v>
       </c>
       <c r="C44" s="3">
-        <v>3944</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B45">
-        <v>5270.1</v>
+        <v>2164.28</v>
       </c>
       <c r="C45" s="3">
-        <v>3957.484734635016</v>
+        <v>4001.07488864657</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>2436.32</v>
+        <v>1188.36</v>
       </c>
       <c r="C46" s="3">
-        <v>4144</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B47">
-        <v>2502.76</v>
+        <v>5270.1</v>
       </c>
       <c r="C47" s="3">
-        <v>4422</v>
+        <v>3957.484734635016</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="B48">
-        <v>3635.56</v>
+        <v>2436.32</v>
       </c>
       <c r="C48" s="3">
-        <v>4758.694957585627</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>5544.48</v>
+        <v>2502.76</v>
       </c>
       <c r="C49" s="3">
-        <v>4278.907756904164</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>9900.34</v>
+        <v>3635.56</v>
       </c>
       <c r="C50" s="3">
-        <v>4422</v>
+        <v>4758.694957585627</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B51">
-        <v>3604.16</v>
+        <v>5544.48</v>
       </c>
       <c r="C51" s="3">
-        <v>4254.887063837343</v>
+        <v>4278.907756904164</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>1590.94</v>
+        <v>9900.34</v>
       </c>
       <c r="C52" s="3">
-        <v>4140</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>3481.32</v>
+        <v>3604.16</v>
       </c>
       <c r="C53" s="3">
-        <v>4243</v>
+        <v>4254.887063837343</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B54">
-        <v>553.74</v>
+        <v>1590.94</v>
       </c>
       <c r="C54" s="3">
-        <v>4125</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B55">
-        <v>1820.36</v>
+        <v>3481.32</v>
       </c>
       <c r="C55" s="3">
-        <v>3757.63090817201</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B56">
-        <v>2451.6</v>
+        <v>553.74</v>
       </c>
       <c r="C56" s="3">
-        <v>3497</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B57">
-        <v>2352.94</v>
+        <v>1820.36</v>
       </c>
       <c r="C57" s="3">
-        <v>3918</v>
+        <v>3757.63090817201</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B58">
-        <v>4883.32</v>
+        <v>2610.7</v>
       </c>
       <c r="C58" s="3">
-        <v>3779</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B59">
-        <v>3931.62</v>
+        <v>2352.94</v>
       </c>
       <c r="C59" s="3">
-        <v>3656.176878742097</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>5187.84</v>
+        <v>4883.32</v>
       </c>
       <c r="C60" s="3">
-        <v>3471.971413921786</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>2580.46</v>
+        <v>3931.62</v>
       </c>
       <c r="C61" s="3">
-        <v>3391</v>
+        <v>3656.176878742097</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B62">
-        <v>1912.62</v>
+        <v>5187.84</v>
       </c>
       <c r="C62" s="3">
-        <v>3562</v>
+        <v>3471.971413921786</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B63">
-        <v>19002.38</v>
+        <v>2580.46</v>
       </c>
       <c r="C63" s="3">
-        <v>4144.070088062654</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B64">
-        <v>2803.8</v>
+        <v>1912.62</v>
       </c>
       <c r="C64" s="3">
-        <v>3397.980312433127</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B65">
-        <v>1032.38</v>
+        <v>19002.38</v>
       </c>
       <c r="C65" s="3">
-        <v>3102</v>
+        <v>4144.070088062654</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B66">
-        <v>1449.92</v>
+        <v>2803.8</v>
       </c>
       <c r="C66" s="3">
-        <v>3475.748027477378</v>
+        <v>3397.980312433127</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B67">
-        <v>9355.040000000001</v>
+        <v>1325.8</v>
       </c>
       <c r="C67" s="3">
-        <v>3382</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>866.28</v>
+        <v>1449.92</v>
       </c>
       <c r="C68" s="3">
-        <v>2954</v>
+        <v>3475.748027477378</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B69">
-        <v>2425.16</v>
+        <v>9355.040000000001</v>
       </c>
       <c r="C69" s="3">
-        <v>2964</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>1708.18</v>
+        <v>866.28</v>
       </c>
       <c r="C70" s="3">
-        <v>3257</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>1606.72</v>
+        <v>2425.16</v>
       </c>
       <c r="C71" s="3">
-        <v>3216.099606652062</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B72">
-        <v>2482.3</v>
+        <v>1708.18</v>
       </c>
       <c r="C72" s="3">
-        <v>3869.438504612657</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B73">
-        <v>2485.74</v>
+        <v>1606.72</v>
       </c>
       <c r="C73" s="3">
-        <v>3912</v>
+        <v>3216.099606652062</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="B74">
-        <v>3644.6</v>
+        <v>2482.3</v>
       </c>
       <c r="C74" s="3">
-        <v>3315.080831915711</v>
+        <v>3869.438504612657</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>2447.52</v>
+        <v>2485.74</v>
       </c>
       <c r="C75" s="3">
-        <v>3080</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B76">
-        <v>2876.64</v>
+        <v>3644.6</v>
       </c>
       <c r="C76" s="3">
-        <v>3089</v>
+        <v>3315.080831915711</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B77">
-        <v>4962.66</v>
+        <v>2941.16</v>
       </c>
       <c r="C77" s="3">
-        <v>3095</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>1427.8</v>
+        <v>2876.64</v>
       </c>
       <c r="C78" s="3">
-        <v>3197</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B79">
-        <v>330.1</v>
+        <v>4962.66</v>
       </c>
       <c r="C79" s="3">
-        <v>2881</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B80">
-        <v>1168.9</v>
+        <v>1427.8</v>
       </c>
       <c r="C80" s="3">
-        <v>3137</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>2463.18</v>
+        <v>330.1</v>
       </c>
       <c r="C81" s="3">
-        <v>3067.128516795362</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>1820.28</v>
+        <v>1168.9</v>
       </c>
       <c r="C82" s="3">
-        <v>4637</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B83">
-        <v>10406.74</v>
+        <v>2463.18</v>
       </c>
       <c r="C83" s="3">
-        <v>3278</v>
+        <v>3067.128516795362</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B84">
-        <v>18313.87</v>
+        <v>1820.28</v>
       </c>
       <c r="C84" s="3">
-        <v>2856.44520846768</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B85">
-        <v>31628.56</v>
+        <v>10406.74</v>
       </c>
       <c r="C85" s="3">
-        <v>3086</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B86">
-        <v>2181.68</v>
+        <v>18313.87</v>
       </c>
       <c r="C86" s="3">
-        <v>3508</v>
+        <v>2856.44520846768</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B87">
-        <v>80972.92</v>
+        <v>31628.56</v>
       </c>
       <c r="C87" s="3">
-        <v>3561.141149411433</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B88">
-        <v>54248.43</v>
+        <v>2181.68</v>
       </c>
       <c r="C88" s="3">
-        <v>3533.865743948719</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B89">
-        <v>41768.25999999999</v>
+        <v>80972.92</v>
       </c>
       <c r="C89" s="3">
-        <v>3673.115142455059</v>
+        <v>3561.141149411433</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B90">
-        <v>33785.08</v>
+        <v>54248.43</v>
       </c>
       <c r="C90" s="3">
-        <v>4086.258053555001</v>
+        <v>3533.865743948719</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B91">
-        <v>48019.36</v>
+        <v>41768.25999999999</v>
       </c>
       <c r="C91" s="3">
-        <v>4153.15966268605</v>
+        <v>3673.115142455059</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B92">
-        <v>51777.84</v>
+        <v>33785.08</v>
       </c>
       <c r="C92" s="3">
-        <v>4124.46344691088</v>
+        <v>4086.258053555001</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B93">
-        <v>27729.38</v>
+        <v>48019.36</v>
       </c>
       <c r="C93" s="3">
-        <v>3748.926031523243</v>
+        <v>4153.15966268605</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B94">
-        <v>61.04</v>
+        <v>51777.84</v>
       </c>
       <c r="C94" s="3">
-        <v>4156</v>
+        <v>4124.46344691088</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B95">
-        <v>826.3200000000001</v>
+        <v>32592.2</v>
       </c>
       <c r="C95" s="3">
-        <v>4248</v>
+        <v>3780.90157522352</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B96">
-        <v>22390.22</v>
+        <v>61.04</v>
       </c>
       <c r="C96" s="3">
-        <v>3738</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B97">
-        <v>3636.5</v>
+        <v>826.3200000000001</v>
       </c>
       <c r="C97" s="3">
-        <v>3542</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B98">
-        <v>6497.44</v>
+        <v>22390.22</v>
       </c>
       <c r="C98" s="3">
-        <v>3998</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B99">
-        <v>13608.23</v>
+        <v>3636.5</v>
       </c>
       <c r="C99" s="3">
-        <v>3913</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B100">
-        <v>27057.91</v>
+        <v>6497.44</v>
       </c>
       <c r="C100" s="3">
-        <v>4877</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B101">
-        <v>2917.8</v>
+        <v>13608.23</v>
       </c>
       <c r="C101" s="3">
-        <v>5177</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B102">
-        <v>32324.05</v>
+        <v>27057.91</v>
       </c>
       <c r="C102" s="3">
-        <v>5021.129882239386</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B103">
-        <v>12340.99</v>
+        <v>2917.8</v>
       </c>
       <c r="C103" s="3">
-        <v>4673</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B104">
-        <v>1884.42</v>
+        <v>32324.05</v>
       </c>
       <c r="C104" s="3">
-        <v>3274</v>
+        <v>5021.129882239386</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B105">
-        <v>1605.86</v>
+        <v>12340.99</v>
       </c>
       <c r="C105" s="3">
-        <v>4890</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="B106">
-        <v>10656.33</v>
+        <v>1884.42</v>
       </c>
       <c r="C106" s="3">
-        <v>5344</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B107">
-        <v>15211.08</v>
+        <v>1605.86</v>
       </c>
       <c r="C107" s="3">
-        <v>2620</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B108">
-        <v>27216.53</v>
+        <v>16750.37</v>
       </c>
       <c r="C108" s="3">
-        <v>3671</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109">
+        <v>15211.08</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110">
+        <v>27216.53</v>
+      </c>
+      <c r="C110" s="3">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>53</v>
       </c>
-      <c r="B109">
+      <c r="B111">
         <v>12370.01</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C111" s="3">
         <v>4233</v>
       </c>
     </row>
